--- a/Evaluation.xlsx
+++ b/Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bb0d295c9c231f/Desktop/GPU Programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{DA7049D4-8BAC-4AD7-B9E6-B927A24908F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94021FC5-EEAC-4CCA-86FF-9522B74C2D02}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{DA7049D4-8BAC-4AD7-B9E6-B927A24908F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6594582-46DA-4A06-B7D3-6F768C165510}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0967B664-0B5A-42EB-A407-32DF2E322B5B}"/>
+    <workbookView xWindow="14475" yWindow="90" windowWidth="12975" windowHeight="15165" xr2:uid="{0967B664-0B5A-42EB-A407-32DF2E322B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -278,9 +278,6 @@
     <t xml:space="preserve">Synchronization </t>
   </si>
   <si>
-    <t>problems with cuCtxSynchronize and  cudaStreamSynchronize</t>
-  </si>
-  <si>
     <t>replace with cudaStreamSynchronize</t>
   </si>
   <si>
@@ -489,6 +486,9 @@
   </si>
   <si>
     <t>validate the number of gpus  (eg: torch.cuda.device_count() )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">problems with cuCtxSynchronize and  cudaStreamSynchronize. </t>
   </si>
 </sst>
 </file>
@@ -604,16 +604,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE7409F-EF6D-4DCD-8C84-B653603F1772}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,191 +959,191 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>113</v>
+      <c r="B2" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
     <row r="19" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1159,7 +1159,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1173,17 +1173,17 @@
       </c>
     </row>
     <row r="27" spans="1:4" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="12"/>
       <c r="C27" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
@@ -1197,35 +1197,35 @@
       </c>
     </row>
     <row r="29" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+      <c r="A29" s="26"/>
       <c r="C29" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="18" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>80</v>
-      </c>
       <c r="D30" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="C31" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="26" t="s">
+      <c r="A31" s="26"/>
+      <c r="C31" s="24" t="s">
         <v>118</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1263,29 +1263,29 @@
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="26" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1296,7 +1296,7 @@
         <v>70</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>40</v>
@@ -1324,7 +1324,7 @@
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
       <c r="D43" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1332,7 +1332,7 @@
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
       <c r="D44" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1348,7 +1348,7 @@
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
       <c r="D46" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1356,7 +1356,7 @@
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
       <c r="D47" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1364,7 +1364,7 @@
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
       <c r="D48" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1380,7 +1380,7 @@
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
       <c r="D50" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1388,7 +1388,7 @@
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
       <c r="D51" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
       <c r="D52" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
       <c r="D53" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
       <c r="D54" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1484,7 +1484,7 @@
       <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B64" s="25" t="s">
@@ -1498,8 +1498,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="23"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="4" t="s">
         <v>23</v>
       </c>
@@ -1522,13 +1522,13 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" s="23" t="s">
+      <c r="B71" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="26" t="s">
         <v>34</v>
       </c>
       <c r="D71" s="5" t="s">
@@ -1536,17 +1536,17 @@
       </c>
     </row>
     <row r="72" spans="1:4" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
       <c r="D72" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
       <c r="D73" s="5" t="s">
         <v>42</v>
       </c>
@@ -1554,23 +1554,23 @@
     <row r="74" spans="1:4" s="18" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C74" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D74" s="18" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="26" t="s">
         <v>45</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -1578,69 +1578,69 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
       <c r="D78" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="23"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
       <c r="C79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
       <c r="D80" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="D81" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C83" s="25"/>
       <c r="D83" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C84" s="25"/>
       <c r="D84" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1648,72 +1648,77 @@
         <v>73</v>
       </c>
       <c r="B86" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" t="s">
         <v>74</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D87" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D88" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D96" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D97" s="26" t="s">
-        <v>133</v>
+      <c r="D97" s="23" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" t="s">
         <v>127</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D98" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="D98" s="18" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="D99" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="D99" s="18" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A2:A24"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A64:A65"/>
     <mergeCell ref="C82:C84"/>
     <mergeCell ref="B2:B24"/>
     <mergeCell ref="A71:A73"/>
@@ -1730,11 +1735,6 @@
     <mergeCell ref="C40:C55"/>
     <mergeCell ref="B56:B59"/>
     <mergeCell ref="C56:C59"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A2:A24"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A64:A65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D65" r:id="rId1" xr:uid="{F541BB00-780D-4B0C-8568-525F30DAED2E}"/>

--- a/Evaluation.xlsx
+++ b/Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bb0d295c9c231f/Desktop/GPU Programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{DA7049D4-8BAC-4AD7-B9E6-B927A24908F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6594582-46DA-4A06-B7D3-6F768C165510}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="8_{DA7049D4-8BAC-4AD7-B9E6-B927A24908F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12183DDF-16B5-49C4-BE40-DCFD4C94AE5C}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="90" windowWidth="12975" windowHeight="15165" xr2:uid="{0967B664-0B5A-42EB-A407-32DF2E322B5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0967B664-0B5A-42EB-A407-32DF2E322B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="379">
   <si>
     <t>Root Cause</t>
   </si>
@@ -266,9 +266,6 @@
     <t>"https://github.com/tensorflow/tensorflow/issues/45081"</t>
   </si>
   <si>
-    <t xml:space="preserve">un-matching python and tensorflow-gpu versions          GPU initialization error                                                               GPUs do not work on the environments </t>
-  </si>
-  <si>
     <t>"https://github.com/tensorflow/tensorflow/issues/45062"</t>
   </si>
   <si>
@@ -392,9 +389,6 @@
     <t>"https://github.com/rosinality/stylegan2-pytorch/issues/154"</t>
   </si>
   <si>
-    <t>1. Reduce batch size                                                                                                        2. Set GPU_MEM to the lowest (https://www.raspberrypi.org/documentation/configuration/config-txt/memory.md) for memory leak issue                                                                   3.Increasing shared memory content in Multi-gpu                                             4. Update to correct versions can fix some OOM issues                                    5. Input size mismatch (Correct by checking it)</t>
-  </si>
-  <si>
     <t>"https://github.com/recong/Boundless-in-Pytorch/issues/4"  (5)</t>
   </si>
   <si>
@@ -419,9 +413,6 @@
     <t>"https://github.com/rapidsai/cuml/issues/3193"</t>
   </si>
   <si>
-    <t xml:space="preserve">cudaErrorMemoryAllocation out of memory message </t>
-  </si>
-  <si>
     <t>Allocating resources using get_default_resouce() flaw</t>
   </si>
   <si>
@@ -437,9 +428,6 @@
     <t>CUDA environmental variable</t>
   </si>
   <si>
-    <t>CUDA_VISIBLE_DEVICES</t>
-  </si>
-  <si>
     <t>"https://github.com/radical-cybertools/radical.pilot/issues/2251"</t>
   </si>
   <si>
@@ -489,13 +477,839 @@
   </si>
   <si>
     <t xml:space="preserve">problems with cuCtxSynchronize and  cudaStreamSynchronize. </t>
+  </si>
+  <si>
+    <t>Performance bottlenect of multi gpu</t>
+  </si>
+  <si>
+    <t>"https://github.com/AlexeyAB/darknet/issues/6492"</t>
+  </si>
+  <si>
+    <t>"https://github.com/Azure/batch-shipyard/issues/357" (4)</t>
+  </si>
+  <si>
+    <t>Failed to compile GPUArrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version mis matches lead to precompile failures. </t>
+  </si>
+  <si>
+    <t>Update version of Julia</t>
+  </si>
+  <si>
+    <t>"https://github.com/CliMA/Oceananigans.jl/issues/854"</t>
+  </si>
+  <si>
+    <t>"https://github.com/HRNet/HRNet-Semantic-Segmentation/issues/126"</t>
+  </si>
+  <si>
+    <t>CuArrays arrays allocate a lot of memory in default GPU</t>
+  </si>
+  <si>
+    <t>expected CuArrays to distribute mem it needs evenly across GPUs (taking into account dev or context we set in CUDAdrv)</t>
+  </si>
+  <si>
+    <t>switch the device before loading CuArrays, since your dev and ctx didn't change the default device</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CUDA.jl/issues/153"</t>
+  </si>
+  <si>
+    <t>CODES if provided</t>
+  </si>
+  <si>
+    <t>External Allocation fails under high pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Execution error </t>
+  </si>
+  <si>
+    <t>need to figure out what is trying to grab memory and whether there is a way to give it memory from the pool or retry the API call while reclaiming memory</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CUDA.jl/issues/340"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incomplete congigurations errors in finding toolset </t>
+  </si>
+  <si>
+    <t>Update CUDA versions or modify the Make File</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/gvdb-voxels/issues/87"</t>
+  </si>
+  <si>
+    <t>https://github.com/NVIDIA/gvdb-voxels/commit/40dd71eaabcabec206261c8a0a4d094ec7a5bbe5</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/spark-rapids/issues/15"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple threads sharing the same GPU </t>
+  </si>
+  <si>
+    <t>cudaErrorIllegalAddress an illegal memory access was encountered</t>
+  </si>
+  <si>
+    <t>turn off GPU memory pooling so each GPU allocation is a separate CUDA allocation. spark.rapids.memory.gpu.pooling.enabled=false.                     try running the executor under cuda-memcheck</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/spark-rapids/issues/519"</t>
+  </si>
+  <si>
+    <t>OpenGL driver lost connection</t>
+  </si>
+  <si>
+    <t>Time out limit message</t>
+  </si>
+  <si>
+    <t>limit pre-rendered frames, disable threaded optimization, tripple buffering and V-Sync</t>
+  </si>
+  <si>
+    <t>"https://github.com/OpenRA/OpenRA/issues/14952"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Asynchronous GPU transfers </t>
+  </si>
+  <si>
+    <t>"https://github.com/PyTorchLightning/pytorch-lightning/issues/1404"</t>
+  </si>
+  <si>
+    <t>utilizing pinned memory with multithreading                                                           Parallelrising GPU transfer and training will cut down time GPU is stuck waiting for data from CPU
+https://devblogs.nvidia.com/how-overlap-data-transfers-cuda-cc/</t>
+  </si>
+  <si>
+    <t>https://github.com/HenryJia/Lighter/blob/master/lighter/train/loaders.py</t>
+  </si>
+  <si>
+    <t>https://github.com/PyTorchLightning/pytorch-lightning/issues/2407</t>
+  </si>
+  <si>
+    <t>"https://github.com/PyTorchLightning/pytorch-lightning/issues/2420"</t>
+  </si>
+  <si>
+    <t>NVCC compiler issue</t>
+  </si>
+  <si>
+    <t>Value: "sm_20" not defined for option "GPU architecture"</t>
+  </si>
+  <si>
+    <t>"https://github.com/SLACKHA/pyJac/issues/38"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nvcc has changed the available keywords for that option.                                https://docs.nvidia.com/cuda/cuda-compiler-driver-nvcc/index.html#virtual-architecture-feature-list            </t>
+  </si>
+  <si>
+    <t>CUDA Error: No GPU Found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add CUDA Support </t>
+  </si>
+  <si>
+    <t>"https://github.com/StanfordLegion/legion/issues/911"</t>
+  </si>
+  <si>
+    <t>https://github.com/StanfordLegion/legion/commit/85eaad1e53662e3d2f9b8ce469fab070790e9f26</t>
+  </si>
+  <si>
+    <t>"https://github.com/ageitgey/face_recognition/issues/1205"   (M1)</t>
+  </si>
+  <si>
+    <t>un-matching python and tensorflow-gpu versions          GPU initialization error                                                               GPUs do not work on the environments                               Error: cudaOccupancyMaxPotentialBlockSize(&amp;num_blocks,&amp;num_threads,K)   (M1)</t>
+  </si>
+  <si>
+    <t>"https://github.com/arrayfire/arrayfire/issues/3001"</t>
+  </si>
+  <si>
+    <t>"https://github.com/backseason/PoolNet/issues/62"</t>
+  </si>
+  <si>
+    <t>Don't set gpu env inside script. Specify outside in the shell. When CUDA_VISIBLE_DEVICES=2,3 in that process the global device ids 2,3 become 0,1.</t>
+  </si>
+  <si>
+    <t>"https://github.com/braceal/molecules/issues/26"</t>
+  </si>
+  <si>
+    <t> Error while calling cudaMalloc(&amp;data, new_size*sizeof(float)) </t>
+  </si>
+  <si>
+    <t>"https://github.com/davisking/dlib/issues/2112"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With AMD Gpus support </t>
+  </si>
+  <si>
+    <t>"https://github.com/flux-framework/flux-core/issues/2149"</t>
+  </si>
+  <si>
+    <t>"https://github.com/fwilliams/deep-geometric-prior/issues/4"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"https://github.com/halide/Halide/issues/80"                                             https://github.com/halide/Halide/pull/2204  </t>
+  </si>
+  <si>
+    <t>Thread Limitation</t>
+  </si>
+  <si>
+    <t>Invalid value error for thread blocks</t>
+  </si>
+  <si>
+    <t>Re write the code to run parallel with suitable values</t>
+  </si>
+  <si>
+    <t>"https://github.com/intel/llvm/issues/2290"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsupported Architecture </t>
+  </si>
+  <si>
+    <t>"https://github.com/jczarnowski/DeepFactors/issues/7"</t>
+  </si>
+  <si>
+    <t>Change 'Compute_75" to '7.5' and appropriate architecture for the gpu</t>
+  </si>
+  <si>
+    <t>"https://github.com/kokkos/kokkos/issues/3207"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fails Nvidia compiler when GPU architecture is not specified </t>
+  </si>
+  <si>
+    <t>PGI_CUDA_ARCH is really only used if CLANG_CUDA_ARCH is defined.</t>
+  </si>
+  <si>
+    <t>Asynchronous Kernel Run Failure</t>
+  </si>
+  <si>
+    <t>Fix the async H2D function with correct dimensions</t>
+  </si>
+  <si>
+    <t>"https://github.com/kunzmi/managedCuda/issues/89"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUDA Math function errors </t>
+  </si>
+  <si>
+    <t>Cuda Accelerator, the XMath.Floor and XMath.Ceiling functions incorrectly handle the edge cases PositiveInfinity, NegativeInfinity and NaN. They also fail on large numbers (e.g. 2^53).
+NB: This also affects the XMath.Truncate function as it uses these internally.</t>
+  </si>
+  <si>
+    <t>https://github.com/m4rs-mt/ILGPU.Algorithms/commit/bb5972a464a055b007c33ad09a4835adffda07a8                                                     https://github.com/m4rs-mt/ILGPU.Algorithms/commit/1048b555c12b22a79c596f12fa443025de7fca7c</t>
+  </si>
+  <si>
+    <t>"https://github.com/m4rs-mt/ILGPU.Algorithms/issues/45"</t>
+  </si>
+  <si>
+    <t>CUDA error executing cudaMemcpy(dst_data, src_data, bytes, cudaMemcpyDeviceToHost)</t>
+  </si>
+  <si>
+    <t>"https://github.com/microsoft/onnxruntime/issues/4008"</t>
+  </si>
+  <si>
+    <t>"https://github.com/opencv/opencv/issues/18051"</t>
+  </si>
+  <si>
+    <t>"https://github.com/penn-graphics-research/claymore/issues/3"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pythonlessons/TensorFlow-2.x-YOLOv3/issues/31"</t>
+  </si>
+  <si>
+    <t>"https://github.com/skyline-emu/skyline/issues/90"</t>
+  </si>
+  <si>
+    <t>"C_val" has already been declared in the current scope</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensor-compiler/taco/issues/311"</t>
+  </si>
+  <si>
+    <t>GPGPU verification, in particular OpenCL</t>
+  </si>
+  <si>
+    <t>"https://github.com/utwente-fmt/vercors/issues/513"                            https://github.com/utwente-fmt/vercors/pull/519</t>
+  </si>
+  <si>
+    <t>"get_global_id(0)" is not supported yet in the tool.
+It is not possible to define pure functions.                         The only way to define ghost variables (e.g. sequence) is to define them as "given" in the contract of the kernel. It is not possible to define or update ghost variables inside the kernel.</t>
+  </si>
+  <si>
+    <t>"https://github.com/z-x-yang/CFBI/issues/9"</t>
+  </si>
+  <si>
+    <t>"https://github.com/3dem/relion/issues/654"</t>
+  </si>
+  <si>
+    <t>"https://github.com/AlexeyAB/darknet/issues/6569"   CUDA_FREE issue</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/KernelAbstractions.jl/issues/128"</t>
+  </si>
+  <si>
+    <t>Pre-Compile Faile</t>
+  </si>
+  <si>
+    <t>Remove unsafe_wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2P transaction crashes the GPU </t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/cuda-samples/issues/48"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/nccl/issues/389"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCCL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serialization in P2P transfers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use different streams </t>
+  </si>
+  <si>
+    <t>"https://github.com/StanfordLegion/legion/issues/936"</t>
+  </si>
+  <si>
+    <t>"https://github.com/cdcseacave/openMVS/issues/614"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMAKE Errors: No CUDA toolset found / CUDA Errors </t>
+  </si>
+  <si>
+    <t>"https://github.com/dog-qiuqiu/Yolo-Fastest/issues/20"</t>
+  </si>
+  <si>
+    <t>Unsupported gpu architecture 'compute_61'</t>
+  </si>
+  <si>
+    <t>check the nvcc path in Makefile firstly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct initialization of nccl </t>
+  </si>
+  <si>
+    <t>"https://github.com/facebookresearch/wav2letter/issues/823"</t>
+  </si>
+  <si>
+    <t>Unhandled Cuda Error</t>
+  </si>
+  <si>
+    <t>"https://github.com/fzi-forschungszentrum-informatik/gpu-voxels/issues/112"</t>
+  </si>
+  <si>
+    <t>cuCheckForError: too many resources requested for launch</t>
+  </si>
+  <si>
+    <t>Jeson related Cmakefile.txt https://github.com/fzi-forschungszentrum-informatik/gpu-voxels/blob/master/packages/gpu_voxels/CMakeLists.txt#L156</t>
+  </si>
+  <si>
+    <t>cudaErrorMemoryAllocation out of memory message   Pool Allocation failed (2)                                                            CUDA mem check error (3)</t>
+  </si>
+  <si>
+    <t>"https://github.com/zhi-wang/tinker.gpu/issues/79"  (6, 3B)</t>
+  </si>
+  <si>
+    <t>"https://github.com/xinjli/allosaurus/issues/4"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPU Renderer draws into an offscreen </t>
+  </si>
+  <si>
+    <t>add API to allow an existing render target to be set for each View</t>
+  </si>
+  <si>
+    <t>"https://github.com/ultralight-ux/Ultralight/issues/284"</t>
+  </si>
+  <si>
+    <t>"https://github.com/triton-inference-server/server/issues/2003"</t>
+  </si>
+  <si>
+    <t>"https://github.com/horovod/horovod/issues/2259"</t>
+  </si>
+  <si>
+    <t>"https://github.com/m4rs-mt/ILGPU/issues/222"</t>
+  </si>
+  <si>
+    <t>"https://github.com/rapidsai/cudf/issues/6376"</t>
+  </si>
+  <si>
+    <t>"https://github.com/rapidsai/cusignal/issues/220"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Parallelism </t>
+  </si>
+  <si>
+    <t>"https://github.com/rapidsai/rmm/issues/448"</t>
+  </si>
+  <si>
+    <t>CUDA_API_PER_THREAD_DEFAULT_STREAM is not set</t>
+  </si>
+  <si>
+    <t>access the legacy default stream using the handle cudaStreamLegacy          https://developer.nvidia.com/blog/gpu-pro-tip-cuda-7-streams-simplify-concurrency/</t>
+  </si>
+  <si>
+    <t>"https://github.com/rapidsai/rmm/issues/535"</t>
+  </si>
+  <si>
+    <t>"https://github.com/rsanchezgarc/deepEMhancer/issues/4"</t>
+  </si>
+  <si>
+    <t>"https://github.com/FluxML/Zygote.jl/issues/814"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broadcasting error appears </t>
+  </si>
+  <si>
+    <t>Simplify indexing kernels</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CUDA.jl/issues/461"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUDA.CuError in Julia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customized Cuda stream pipeline does not work </t>
+  </si>
+  <si>
+    <t>HtoD memcpy still happens on the default stream</t>
+  </si>
+  <si>
+    <t> let the transfer H2D happen during the pipeline execution</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/DALI/issues/2315"</t>
+  </si>
+  <si>
+    <t>cudaPointerGetAttributes cuPointerGetAttributes) is no longer working in CUDA 10.1+</t>
+  </si>
+  <si>
+    <t>Cannot determine the device from pointer / Device mismatch</t>
+  </si>
+  <si>
+    <t> issue is related to timing of CUDA context creation. If you allocate memory on "current" GPU before calling cudaPointGetAttributes(), this issue can be avoided.</t>
+  </si>
+  <si>
+    <t>"https://github.com/cupy/cupy/issues/3991"</t>
+  </si>
+  <si>
+    <t>"https://github.com/espnet/espnet/issues/2578"</t>
+  </si>
+  <si>
+    <t>"https://github.com/facebookresearch/flashlight/issues/198"</t>
+  </si>
+  <si>
+    <t>"https://github.com/lRomul/argus/issues/5"</t>
+  </si>
+  <si>
+    <t>Handle multi-GPU model</t>
+  </si>
+  <si>
+    <t>RuntimeError: Expected all tensors to be on the same device</t>
+  </si>
+  <si>
+    <r>
+      <t>use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> parameter of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>argus.load_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>"https://github.com/microsoft/onnxruntime/issues/5555"</t>
+  </si>
+  <si>
+    <t>"https://github.com/open-mmlab/mmdetection/issues/4012"</t>
+  </si>
+  <si>
+    <t>1. Reduce batch size                                                                                                        2. Set GPU_MEM to the lowest (https://www.raspberrypi.org/documentation/configuration/config-txt/memory.md) for memory leak issue                                                                   3.Increasing shared memory content in Multi-gpu                                             4. Update to correct versions/Drivers can fix some OOM issues                                    5. Input size mismatch (Correct by checking it)                                                      6. set correct CUDA_MEMCHECK_PATCH_MODULE                                               7. Unified Memory to save GPU memory.</t>
+  </si>
+  <si>
+    <t>"https://github.com/oreilly-japan/deep-learning-from-scratch-2/issues/16"</t>
+  </si>
+  <si>
+    <t>"https://github.com/oreilly-japan/deep-learning-from-scratch-2/issues/16"  (7)</t>
+  </si>
+  <si>
+    <t>"https://github.com/pmodels/yaksa/issues/114"</t>
+  </si>
+  <si>
+    <t>CUDA_VISIBLE_DEVICES issue</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/21819"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCCL all_reduce fails </t>
+  </si>
+  <si>
+    <r>
+      <t>change </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch.cuda.set_device(0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch.cuda.set_device(rank)</t>
+    </r>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/43345"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCCL dataparallel failes </t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/46259"</t>
+  </si>
+  <si>
+    <r>
+      <t>adding </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch.cuda.set_device(rank)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> before the training loop</t>
+    </r>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/46974"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/tutorials/issues/1196"</t>
+  </si>
+  <si>
+    <t>issues with CUDA decorators in the compiler</t>
+  </si>
+  <si>
+    <t>compile the relevant files with NVIDIA's CUDA compiler </t>
+  </si>
+  <si>
+    <t>"https://github.com/slyphiX/MeshIntersectionVolume/issues/2"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/43720"</t>
+  </si>
+  <si>
+    <t>https://github.com/tensorflow/tensorflow/commit/68a6fe0d984377b625b421d34f8c607d6ed73597</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/44281"</t>
+  </si>
+  <si>
+    <t>"https://github.com/trexminer/T-Rex/issues/78"</t>
+  </si>
+  <si>
+    <t>"https://github.com/twistedfall/opencv-rust/issues/175"</t>
+  </si>
+  <si>
+    <t>"https://github.com/wolfpld/tracy/issues/78"</t>
+  </si>
+  <si>
+    <t>"https://github.com/xamarin/TorchSharp/issues/170"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong values </t>
+  </si>
+  <si>
+    <t>"https://github.com/FluxML/Zygote.jl/issues/821"</t>
+  </si>
+  <si>
+    <t>Incorrect derivative in CUDA getindex() in CuArrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illegal memory access with shared memory </t>
+  </si>
+  <si>
+    <t>https://github.com/JuliaGPU/CUDA.jl/commit/5ae2bd9941277c7c61ff21c9164dd84935c6df90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't sink pointer to int or int to pointer </t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CUDA.jl/issues/558"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaParallel/MPI.jl/issues/443"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synchronization issues with Julia and CUDA </t>
+  </si>
+  <si>
+    <t>"https://github.com/LLNL/Aluminum/issues/77"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/TensorRT/issues/573"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> empty CUDA_ARCHITECTURES not allowed</t>
+  </si>
+  <si>
+    <t>Build cmake manually</t>
+  </si>
+  <si>
+    <t>Multi stream parallel execution with one GPU</t>
+  </si>
+  <si>
+    <t>Wrong code (typo error)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix the code </t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/TensorRT/issues/846"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPU_build does not work </t>
+  </si>
+  <si>
+    <t>USE_CUDA not working</t>
+  </si>
+  <si>
+    <t>https://github.com/ZhenghaoFei/visual_odom/commit/4d2b3bb06f71eee91a3c9750a11945fc45dac323</t>
+  </si>
+  <si>
+    <t>Replace with DUSE_CUDA</t>
+  </si>
+  <si>
+    <t>"https://github.com/affjljoo3581/GPT2/issues/4"</t>
+  </si>
+  <si>
+    <t>"https://github.com/alpaka-group/alpaka/issues/1216"</t>
+  </si>
+  <si>
+    <t>Synchronization issues P2P copies (blocking)</t>
+  </si>
+  <si>
+    <t>call normal memcopies after we opened peer channels.</t>
+  </si>
+  <si>
+    <t>https://developer.download.nvidia.com/CUDA/training/cuda_webinars_GPUDirect_uva.pdf</t>
+  </si>
+  <si>
+    <t>"https://github.com/colmap/colmap/issues/1035"</t>
+  </si>
+  <si>
+    <t>Change cuda version</t>
+  </si>
+  <si>
+    <t> Unsupported gpu architecture 'compute_30'</t>
+  </si>
+  <si>
+    <t>"https://github.com/darktable-org/darktable/issues/2607"</t>
+  </si>
+  <si>
+    <r>
+      <t>setting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>opencl_use_pinned_memory to true improve transfers speed</t>
+    </r>
+  </si>
+  <si>
+    <t>Performance bottleneck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vRam buffer copies </t>
+  </si>
+  <si>
+    <t>"https://github.com/ddudt/DESC/issues/1"</t>
+  </si>
+  <si>
+    <t>CUDA 11.0 does not support compute_86.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unsupported gpu architecture 'compute_86'</t>
+  </si>
+  <si>
+    <t>"https://github.com/facebookresearch/detectron2/issues/2225"</t>
+  </si>
+  <si>
+    <t>"https://github.com/flux-framework/flux-core/issues/3316"</t>
+  </si>
+  <si>
+    <t>"https://github.com/gfx-rs/wgpu/issues/1043"</t>
+  </si>
+  <si>
+    <t>Flaging issue</t>
+  </si>
+  <si>
+    <t>GPU does not receive input data (memcpy fails)</t>
+  </si>
+  <si>
+    <t>fix the code</t>
+  </si>
+  <si>
+    <t>"https://github.com/halide/Halide/issues/5443"</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Infinoid/d4260acda7a7e391c6affba704f13e85</t>
+  </si>
+  <si>
+    <t>"https://github.com/horovod/horovod/issues/1623"</t>
+  </si>
+  <si>
+    <t>cudaLaunchCooperativeKernel()</t>
+  </si>
+  <si>
+    <t>Need to use driver API functions                                                                                https://docs.nvidia.com/cuda/cuda-driver-api/group__CUDA__EXEC.html#group__CUDA__EXEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cudaLaunchCooperativeKernel Support </t>
+  </si>
+  <si>
+    <t>"https://github.com/inducer/pycuda/issues/253"</t>
+  </si>
+  <si>
+    <t>"https://github.com/k2-fsa/k2/issues/350"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compiler Failure </t>
+  </si>
+  <si>
+    <t>Nvidia shader compiler crashes, error in shared memory consumpution, error device lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct the size in shared memory </t>
+  </si>
+  <si>
+    <t>"https://github.com/linebender/piet-gpu/issues/10"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsafe scatter with GPU arrays for multithreading </t>
+  </si>
+  <si>
+    <t>https://github.com/mcabbott/Tullio.jl/commit/4d30a1f2169844952a2174113f9b44615c6f3c7b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixing the code </t>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> is unsafe to multi-thread, but wasn't passing this to KernelAbstractions:</t>
+    </r>
+  </si>
+  <si>
+    <t>"https://github.com/mcabbott/Tullio.jl/issues/49"</t>
+  </si>
+  <si>
+    <t>https://github.com/ptillet/triton/commit/7710e048f457c46afb1d222afdb5eac35a51e035</t>
+  </si>
+  <si>
+    <t>"https://github.com/ptillet/torch-blocksparse/issues/15"</t>
+  </si>
+  <si>
+    <t>Floating point issue</t>
+  </si>
+  <si>
+    <t>fp16 uses high memory than fp32</t>
+  </si>
+  <si>
+    <t>Avoid mixed precision architectures                                                                         https://docs.nvidia.com/deeplearning/performance/mixed-precision-training/index.html#prereqs</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/fairseq/issues/2907"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does not handle NAN, in cutorch </t>
+  </si>
+  <si>
+    <t>reset them to a documented special values or to the actual indices, corresponding to nan positions (if they are selected)</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/1810"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,16 +1352,338 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri "/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri "/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -555,12 +1691,160 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -608,17 +1892,136 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -930,21 +2333,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE7409F-EF6D-4DCD-8C84-B653603F1772}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="C227" sqref="C227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="48.5703125" customWidth="1"/>
     <col min="3" max="3" width="63.85546875" customWidth="1"/>
     <col min="4" max="4" width="61.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,791 +2361,1960 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="E1" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>112</v>
+      <c r="B2" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>287</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
+    <row r="5" spans="1:5">
+      <c r="A5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="65"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
+    <row r="9" spans="1:5">
+      <c r="A9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
+      <c r="E10" s="45" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
+    <row r="12" spans="1:5" s="18" customFormat="1">
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="18" customFormat="1">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="18" customFormat="1">
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="18" customFormat="1">
+      <c r="A15" s="65"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="18" customFormat="1">
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="18" customFormat="1">
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="18" customFormat="1">
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="18" customFormat="1">
+      <c r="A20" s="65"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="18" customFormat="1">
+      <c r="A21" s="65"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="18" customFormat="1">
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="18" customFormat="1">
+      <c r="A23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="18" customFormat="1">
+      <c r="A24" s="65"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="18" customFormat="1">
+      <c r="A25" s="65"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="18" customFormat="1">
+      <c r="A26" s="65"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="18" customFormat="1">
+      <c r="A27" s="65"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="18" customFormat="1">
+      <c r="A28" s="65"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30">
+      <c r="A29" s="65"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="18" customFormat="1">
+      <c r="A30" s="65"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="18" customFormat="1" ht="45">
+      <c r="A31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="61" customFormat="1">
+      <c r="A32" s="65"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="61" t="s">
+        <v>349</v>
+      </c>
+      <c r="E32" s="46"/>
+    </row>
+    <row r="33" spans="1:5" s="18" customFormat="1">
+      <c r="A33" s="65"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="33">
+      <c r="A35" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="45">
+      <c r="A36" s="65"/>
+      <c r="B36" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="18" customFormat="1">
+      <c r="A37" s="65"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="18" customFormat="1">
+      <c r="A38" s="65"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="18" customFormat="1">
+      <c r="A39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="18" customFormat="1" ht="16.5">
+      <c r="A40" s="65"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="18" t="s">
+    <row r="41" spans="1:5" s="18" customFormat="1">
+      <c r="A41" s="65"/>
+      <c r="B41" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="50" customFormat="1" ht="45">
+      <c r="A42" s="65"/>
+      <c r="B42" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="61" customFormat="1" ht="45">
+      <c r="A43" s="65"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="61" t="s">
+        <v>371</v>
+      </c>
+      <c r="E43" s="63" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="18" customFormat="1">
+      <c r="A44" s="65"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="45">
+      <c r="A45" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="16.5">
+      <c r="A46" s="25"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" ht="34.5" customHeight="1">
+      <c r="A47" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A48" s="65"/>
+      <c r="B48" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A49" s="65"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A50" s="65"/>
+      <c r="C50" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A51" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A52" s="65"/>
+      <c r="C52" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="18" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A53" s="65"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A54" s="65"/>
+      <c r="B54" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="61" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A55" s="65"/>
+      <c r="B55" s="29"/>
+      <c r="D55" s="61" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="18" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A56" s="65"/>
+      <c r="B56" s="29"/>
+      <c r="D56" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="18" customFormat="1"/>
+    <row r="60" spans="1:5" ht="30">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="18" customFormat="1">
+      <c r="B61" s="12"/>
+      <c r="D61" s="12"/>
+    </row>
+    <row r="62" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A62" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="18" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A63" s="65"/>
+      <c r="B63" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="18" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A64" s="65"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="E64" s="39" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="18" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A65" s="28"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="20"/>
+    </row>
+    <row r="66" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A66" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="15" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A67" s="66"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A68" s="66"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="18" customFormat="1" ht="24" customHeight="1">
+      <c r="A69" s="66"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="18" customFormat="1" ht="18" customHeight="1">
+      <c r="A70" s="66"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="A71" s="66"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="18" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A72" s="66"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A73" s="66"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="18" customFormat="1" ht="18" customHeight="1">
+      <c r="A74" s="66"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="18" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A75" s="66"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="18" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A76" s="66"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A77" s="66"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A78" s="66"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A79" s="66"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A80" s="66"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A81" s="66"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A82" s="66"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A83" s="66"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="E83" s="39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A84" s="66"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="24" customHeight="1">
+      <c r="A85" s="66"/>
+      <c r="B85" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="33" customHeight="1">
+      <c r="A86" s="66"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
+      <c r="D86" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="33" customHeight="1">
+      <c r="A87" s="66"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1">
+      <c r="A88" s="66"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="33" customHeight="1">
+      <c r="A89" s="66"/>
+      <c r="B89" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1">
+      <c r="A90" s="66"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1">
+      <c r="A91" s="66"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="35"/>
+    </row>
+    <row r="92" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1">
+      <c r="A92" s="66"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="33" customHeight="1">
+      <c r="A93" s="8"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+    </row>
+    <row r="94" spans="1:5" ht="33" customHeight="1">
+      <c r="A94" s="8"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+    </row>
+    <row r="95" spans="1:5" ht="33" customHeight="1">
+      <c r="A95" s="8"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="45">
+      <c r="A97" s="65"/>
+      <c r="B97" s="65"/>
+      <c r="C97" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="18" customFormat="1" ht="16.5">
+      <c r="A98" s="65"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="18" customFormat="1" ht="16.5">
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" spans="1:5" s="18" customFormat="1" ht="16.5">
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>144</v>
+      </c>
+      <c r="B101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" t="s">
+        <v>146</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="18" customFormat="1" ht="43.5">
+      <c r="A102" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="B102" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="18" customFormat="1">
+      <c r="A103" s="66"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="E103" s="35"/>
+    </row>
+    <row r="104" spans="1:5" s="18" customFormat="1">
+      <c r="A104" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="B104" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="E104" s="26"/>
+    </row>
+    <row r="105" spans="1:5" s="18" customFormat="1">
+      <c r="A105" s="40"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="35"/>
+      <c r="E105" s="35"/>
+    </row>
+    <row r="106" spans="1:5" s="18" customFormat="1">
+      <c r="A106" s="40"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="35"/>
+      <c r="E106" s="35"/>
+    </row>
+    <row r="107" spans="1:5" s="18" customFormat="1" ht="45">
+      <c r="A107" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B107" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="E107" s="35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="30">
+      <c r="A109" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A112" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="65" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="18" t="s">
+      <c r="C112" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="18" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A113" s="65"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="65"/>
+      <c r="D113" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A114" s="65"/>
+      <c r="B114" s="65"/>
+      <c r="C114" s="65"/>
+      <c r="D114" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" s="18" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A115" s="65"/>
+      <c r="B115" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" s="18" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A116" s="65"/>
+      <c r="B116" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="18" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A117" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B117" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="65"/>
+      <c r="B120" s="65"/>
+      <c r="C120" s="65"/>
+      <c r="D120" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="65"/>
+      <c r="B121" s="65"/>
+      <c r="D121" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="65"/>
+      <c r="B122" s="65"/>
+      <c r="C122" t="s">
+        <v>100</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="18" customFormat="1">
+      <c r="A123" s="65"/>
+      <c r="B123" s="65"/>
+      <c r="D123" s="18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="65"/>
+      <c r="B124" s="65"/>
+      <c r="D124" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="18" t="s">
+    <row r="125" spans="1:4" ht="30">
+      <c r="A125" s="65"/>
+      <c r="B125" t="s">
+        <v>119</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="18" customFormat="1">
+      <c r="A126" s="65"/>
+      <c r="B126" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C126" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="18" customFormat="1">
+      <c r="A127" s="65"/>
+      <c r="C127" s="66"/>
+      <c r="D127" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" s="55" customFormat="1">
+      <c r="A128" s="65"/>
+      <c r="C128" s="66"/>
+      <c r="D128" s="56" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" s="18" customFormat="1">
+      <c r="A129" s="65"/>
+      <c r="C129" s="66"/>
+      <c r="D129" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" s="54" customFormat="1" ht="30">
+      <c r="A130" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="B130" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="C130" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="D130" s="55" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" s="58" customFormat="1">
+      <c r="A131" s="45"/>
+      <c r="C131" s="45"/>
+    </row>
+    <row r="132" spans="1:5" s="18" customFormat="1">
+      <c r="A132" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" s="26"/>
+      <c r="D132" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="58" customFormat="1" ht="16.5">
+      <c r="A133" s="58" t="s">
+        <v>342</v>
+      </c>
+      <c r="B133" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="C133" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="D133" s="59" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="25.5">
+      <c r="A134" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="B134" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" s="18" customFormat="1"/>
+    <row r="136" spans="1:5" ht="30">
+      <c r="A136" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136" t="s">
+        <v>73</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="65"/>
+      <c r="D137" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="65"/>
+      <c r="D138" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="65"/>
+      <c r="B139" t="s">
+        <v>163</v>
+      </c>
+      <c r="D139" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="60">
+      <c r="A140" s="65"/>
+      <c r="B140" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C140" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D140" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E140" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" s="18" customFormat="1">
+      <c r="A141" s="65"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E141" s="26"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="65"/>
+      <c r="D142" s="23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" s="18" customFormat="1">
+      <c r="A143" s="65"/>
+      <c r="D143" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" s="51" customFormat="1">
+      <c r="A144" s="65"/>
+      <c r="D144" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" s="56" customFormat="1" ht="45">
+      <c r="A145" s="65"/>
+      <c r="B145" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="C145" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="D145" s="57" t="s">
+        <v>333</v>
+      </c>
+      <c r="E145" s="45" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="65"/>
+      <c r="B146" t="s">
+        <v>319</v>
+      </c>
+      <c r="D146" s="52" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" s="18" customFormat="1" ht="30">
+      <c r="A147" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B147" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="C147" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D147" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" s="18" customFormat="1">
+      <c r="A148" s="36"/>
+      <c r="C148" s="31"/>
+      <c r="E148" s="26"/>
+    </row>
+    <row r="149" spans="1:5" s="18" customFormat="1">
+      <c r="A149" s="25"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="26"/>
+      <c r="E149" s="26"/>
+    </row>
+    <row r="150" spans="1:5" s="18" customFormat="1">
+      <c r="A150" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C150" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E150" s="26"/>
+    </row>
+    <row r="151" spans="1:5" s="18" customFormat="1" ht="60">
+      <c r="A151" s="66" t="s">
+        <v>239</v>
+      </c>
+      <c r="B151" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D151" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E151" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="30">
+      <c r="A152" s="66"/>
+      <c r="B152" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="C152" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D152" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="66"/>
+      <c r="D153" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" s="18" customFormat="1" ht="45">
+      <c r="A154" s="65"/>
+      <c r="B154" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C154" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="D154" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" s="18" customFormat="1" ht="16.5">
+      <c r="A156" s="28"/>
+      <c r="B156" s="38"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="27"/>
+    </row>
+    <row r="157" spans="1:5" s="54" customFormat="1" ht="45">
+      <c r="A157" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="B157" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C157" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D157" s="54" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" s="54" customFormat="1" ht="30">
+      <c r="A158" s="65"/>
+      <c r="B158" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D158" s="54" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" s="53" customFormat="1">
+      <c r="A159" s="65"/>
+      <c r="B159" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="C159" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="D159" s="54" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" s="54" customFormat="1" ht="30">
+      <c r="A160" s="65"/>
+      <c r="B160" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C160" s="30"/>
+      <c r="D160" s="54" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" s="54" customFormat="1" ht="16.5">
+      <c r="A161" s="65"/>
+      <c r="B161" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C161" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="D161" s="54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" s="57" customFormat="1" ht="16.5">
+      <c r="A162" s="65"/>
+      <c r="B162" s="32"/>
+      <c r="C162" s="37"/>
+    </row>
+    <row r="163" spans="1:5" s="57" customFormat="1" ht="16.5">
+      <c r="A163" s="65"/>
+      <c r="B163" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="C163" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="D163" s="58" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="60" customFormat="1" ht="16.5">
+      <c r="A164" s="65"/>
+      <c r="B164" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="C164" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="D164" s="61" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" s="54" customFormat="1">
+      <c r="A165" s="65"/>
+      <c r="D165" s="54" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" s="61" customFormat="1">
+      <c r="A166" s="62"/>
+    </row>
+    <row r="167" spans="1:5" s="61" customFormat="1" ht="29.25">
+      <c r="A167" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B167" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="C167" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="D167" s="61" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" s="61" customFormat="1">
+      <c r="A168" s="44"/>
+    </row>
+    <row r="169" spans="1:5" s="18" customFormat="1" ht="29.25">
+      <c r="A169" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="B169" s="32"/>
+      <c r="C169" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="D169" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" s="18" customFormat="1">
+      <c r="A170" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B170" s="26"/>
+      <c r="C170" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="D170" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" s="18" customFormat="1" ht="45">
+      <c r="A171" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B171" s="26"/>
+      <c r="C171" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D171" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E171" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" s="18" customFormat="1">
+      <c r="B172" s="26"/>
+      <c r="C172" s="30"/>
+      <c r="E172" s="26"/>
+    </row>
+    <row r="173" spans="1:5" s="18" customFormat="1">
+      <c r="B173" s="26"/>
+      <c r="C173" s="30"/>
+      <c r="E173" s="26"/>
+    </row>
+    <row r="174" spans="1:5" s="18" customFormat="1" ht="120">
+      <c r="A174" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="B174" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C174" s="30"/>
+      <c r="D174" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E174" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" s="61" customFormat="1" ht="29.25">
+      <c r="A175" s="65"/>
+      <c r="B175" s="63" t="s">
+        <v>376</v>
+      </c>
+      <c r="C175" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="D175" s="61" t="s">
+        <v>378</v>
+      </c>
+      <c r="E175" s="63"/>
+    </row>
+    <row r="176" spans="1:5" ht="30">
+      <c r="A176" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="B176" t="s">
+        <v>311</v>
+      </c>
+      <c r="D176" s="49" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="C29" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="18" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="C31" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="18" t="s">
+      <c r="D179" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="D180" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="D181" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" s="18" customFormat="1">
+      <c r="D182" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B183" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="D183" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" s="18" customFormat="1" ht="45">
+      <c r="A184" s="65"/>
+      <c r="B184" s="65"/>
+      <c r="D184" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E184" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" s="18" customFormat="1" ht="45">
+      <c r="A185" s="65"/>
+      <c r="B185" s="65"/>
+      <c r="C185" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D185" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E185" s="26"/>
+    </row>
+    <row r="186" spans="1:5" s="18" customFormat="1">
+      <c r="A186" s="65"/>
+      <c r="B186" s="65"/>
+      <c r="C186" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D186" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E186" s="26"/>
+    </row>
+    <row r="187" spans="1:5" s="18" customFormat="1">
+      <c r="A187" s="65"/>
+      <c r="B187" s="65"/>
+      <c r="C187" s="30"/>
+      <c r="D187" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E187" s="27"/>
+    </row>
+    <row r="188" spans="1:5" s="18" customFormat="1">
+      <c r="A188" s="65"/>
+      <c r="B188" s="65"/>
+      <c r="C188" s="30"/>
+      <c r="D188" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E188" s="35"/>
+    </row>
+    <row r="189" spans="1:5" s="61" customFormat="1">
+      <c r="A189" s="65"/>
+      <c r="B189" s="65"/>
+      <c r="C189" s="30"/>
+      <c r="D189" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="E189" s="46"/>
+    </row>
+    <row r="190" spans="1:5" s="18" customFormat="1">
+      <c r="A190" s="65"/>
+      <c r="B190" s="65"/>
+      <c r="C190" s="30"/>
+      <c r="D190" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E190" s="26"/>
+    </row>
+    <row r="191" spans="1:5" s="18" customFormat="1">
+      <c r="A191" s="65"/>
+      <c r="B191" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C191" s="30"/>
+      <c r="D191" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="E191" s="39"/>
+    </row>
+    <row r="192" spans="1:5" ht="45">
+      <c r="A192" s="65"/>
+      <c r="B192" t="s">
+        <v>129</v>
+      </c>
+      <c r="C192" s="22" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="18" t="s">
+      <c r="D192" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-    </row>
-    <row r="60" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-    </row>
-    <row r="62" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-    </row>
-    <row r="63" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="18" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="D78" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-      <c r="C79" t="s">
-        <v>101</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
-      <c r="D80" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>122</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="25"/>
-      <c r="D83" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="25"/>
-      <c r="D84" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>73</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C86" t="s">
-        <v>74</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D87" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D88" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>89</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D96" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D97" s="23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>126</v>
-      </c>
-      <c r="B98" t="s">
-        <v>127</v>
-      </c>
-      <c r="D98" s="18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>133</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D99" s="18" t="s">
-        <v>135</v>
+    <row r="197" spans="1:5" ht="90">
+      <c r="A197" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B197" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D197" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" s="18" customFormat="1">
+      <c r="A200" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="B200" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C200" s="31"/>
+      <c r="D200" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E200" s="26"/>
+    </row>
+    <row r="201" spans="1:5" s="18" customFormat="1">
+      <c r="A201" s="65"/>
+      <c r="C201" s="31"/>
+      <c r="D201" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E201" s="27"/>
+    </row>
+    <row r="202" spans="1:5" s="61" customFormat="1">
+      <c r="A202" s="65"/>
+      <c r="C202" s="31"/>
+      <c r="D202" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="E202" s="46"/>
+    </row>
+    <row r="203" spans="1:5" s="18" customFormat="1" ht="16.5">
+      <c r="A203" s="65"/>
+      <c r="B203" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="C203" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="D203" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="E203" s="27"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="65"/>
+      <c r="D204" s="18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" s="18" customFormat="1" ht="16.5">
+      <c r="A205" s="65"/>
+      <c r="B205" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C205" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D205" s="18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" s="18" customFormat="1" ht="16.5">
+      <c r="A206" s="65"/>
+      <c r="B206" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C206" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="D206" s="18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="D207" s="53" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" s="53" customFormat="1"/>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>235</v>
+      </c>
+      <c r="C209" t="s">
+        <v>236</v>
+      </c>
+      <c r="D209" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="45">
+      <c r="B210" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C210" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D210" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>260</v>
+      </c>
+      <c r="D213" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="30">
+      <c r="A215" t="s">
+        <v>328</v>
+      </c>
+      <c r="B215" t="s">
+        <v>329</v>
+      </c>
+      <c r="C215" t="s">
+        <v>331</v>
+      </c>
+      <c r="D215" s="45" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="45">
+      <c r="A218" t="s">
+        <v>350</v>
+      </c>
+      <c r="B218" t="s">
+        <v>351</v>
+      </c>
+      <c r="C218" t="s">
+        <v>352</v>
+      </c>
+      <c r="D218" s="61" t="s">
+        <v>353</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="45">
+      <c r="A220" s="61" t="s">
+        <v>358</v>
+      </c>
+      <c r="B220" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="C220" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="D220" s="61" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="45.75">
+      <c r="A223" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="B223" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="C223" t="s">
+        <v>367</v>
+      </c>
+      <c r="D223" s="61" t="s">
+        <v>369</v>
+      </c>
+      <c r="E223" s="63" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="45">
+      <c r="A226" t="s">
+        <v>372</v>
+      </c>
+      <c r="B226" t="s">
+        <v>373</v>
+      </c>
+      <c r="C226" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="D226" s="61" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A2:A24"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="B2:B24"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C2:C24"/>
-    <mergeCell ref="A40:A60"/>
-    <mergeCell ref="B40:B55"/>
-    <mergeCell ref="C40:C55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
+  <mergeCells count="31">
+    <mergeCell ref="A2:A33"/>
+    <mergeCell ref="B2:B33"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="A66:A92"/>
+    <mergeCell ref="B183:B190"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="A157:A165"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="C66:C84"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C2:C33"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="B119:B124"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="A200:A206"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="A136:A146"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B66:B84"/>
+    <mergeCell ref="A151:A154"/>
+    <mergeCell ref="A183:A192"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A119:A129"/>
+    <mergeCell ref="A112:A116"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D65" r:id="rId1" xr:uid="{F541BB00-780D-4B0C-8568-525F30DAED2E}"/>
-    <hyperlink ref="D68" r:id="rId2" xr:uid="{D9BA0B3C-DC7D-44AF-B40E-13C8C59E134B}"/>
-    <hyperlink ref="D82" r:id="rId3" xr:uid="{8B306E01-B38C-45EC-B6CE-FCB03DA3DB1A}"/>
+    <hyperlink ref="D97" r:id="rId1" xr:uid="{F541BB00-780D-4B0C-8568-525F30DAED2E}"/>
+    <hyperlink ref="D109" r:id="rId2" xr:uid="{D9BA0B3C-DC7D-44AF-B40E-13C8C59E134B}"/>
+    <hyperlink ref="D126" r:id="rId3" xr:uid="{8B306E01-B38C-45EC-B6CE-FCB03DA3DB1A}"/>
+    <hyperlink ref="E218" r:id="rId4" xr:uid="{6973A5B5-4AC3-4571-80EC-F7A27028D2ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Evaluation.xlsx
+++ b/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bb0d295c9c231f/Desktop/GPU Programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="8_{DA7049D4-8BAC-4AD7-B9E6-B927A24908F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12183DDF-16B5-49C4-BE40-DCFD4C94AE5C}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="8_{DA7049D4-8BAC-4AD7-B9E6-B927A24908F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{247DAA81-642C-4937-93AF-6A96D6DA3A21}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0967B664-0B5A-42EB-A407-32DF2E322B5B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="456">
   <si>
     <t>Root Cause</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>"https://github.com/wiremod/wire/issues/1998"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-GPU implementation bugs </t>
   </si>
   <si>
     <t>DataParallelCriterion causes the issue</t>
@@ -958,9 +955,6 @@
     <t>"https://github.com/open-mmlab/mmdetection/issues/4012"</t>
   </si>
   <si>
-    <t>1. Reduce batch size                                                                                                        2. Set GPU_MEM to the lowest (https://www.raspberrypi.org/documentation/configuration/config-txt/memory.md) for memory leak issue                                                                   3.Increasing shared memory content in Multi-gpu                                             4. Update to correct versions/Drivers can fix some OOM issues                                    5. Input size mismatch (Correct by checking it)                                                      6. set correct CUDA_MEMCHECK_PATCH_MODULE                                               7. Unified Memory to save GPU memory.</t>
-  </si>
-  <si>
     <t>"https://github.com/oreilly-japan/deep-learning-from-scratch-2/issues/16"</t>
   </si>
   <si>
@@ -1055,9 +1049,6 @@
     <t>compile the relevant files with NVIDIA's CUDA compiler </t>
   </si>
   <si>
-    <t>"https://github.com/slyphiX/MeshIntersectionVolume/issues/2"</t>
-  </si>
-  <si>
     <t>"https://github.com/tensorflow/tensorflow/issues/43720"</t>
   </si>
   <si>
@@ -1304,12 +1295,292 @@
   <si>
     <t>"https://github.com/pytorch/pytorch/issues/1810"</t>
   </si>
+  <si>
+    <t>"https://github.com/BOINC/boinc/issues/3893"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assertion Error </t>
+  </si>
+  <si>
+    <r>
+      <t>constructors such as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>CUDA.zeros(T, 0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t> would fail for the types not handled by CUDA memset (64-bit numbers not supported).</t>
+    </r>
+  </si>
+  <si>
+    <t>CUDA.zeros(Float64, 0)</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CUDA.jl/issues/81"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"https://github.com/slyphiX/MeshIntersectionVolume/issues/2"              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Duplication </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only host device tags are changed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alter the program </t>
+  </si>
+  <si>
+    <t>"https://github.com/Lut99/RayTracer-2/issues/13"</t>
+  </si>
+  <si>
+    <t>https://github.com/Lut99/RayTracer-2/commit/53d489db37b0191041fd4d9d428474d974e21ba7</t>
+  </si>
+  <si>
+    <t>"https://github.com/wang-xinyu/tensorrtx/issues/50"</t>
+  </si>
+  <si>
+    <t>Improvement on multi stream or multi-gpu applications</t>
+  </si>
+  <si>
+    <t>"https://github.com/spcl/dace/issues/300"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">math library operators (exp) overload error </t>
+  </si>
+  <si>
+    <t xml:space="preserve">explicitly cast to a half </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuda.merge returns host memory, not device memory </t>
+  </si>
+  <si>
+    <t>inconsistent with other APIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need to provide device memory during output </t>
+  </si>
+  <si>
+    <t>"https://github.com/opencv/opencv/issues/17910"</t>
+  </si>
+  <si>
+    <t>https://github.com/opencv/opencv_contrib/blob/5fae4082cc493efa5cb7a7486f9e009618a5198b/modules/cudaarithm/src/cuda/split_merge.cu#L136</t>
+  </si>
+  <si>
+    <t>"https://github.com/mgawan/GPU-BSW/issues/10"</t>
+  </si>
+  <si>
+    <t>https://github.com/mgawan/GPU-BSW/blob/master/kernel.cpp#L602</t>
+  </si>
+  <si>
+    <t>"https://github.com/kaldi-asr/kaldi/issues/2195"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory allocator is inefficient </t>
+  </si>
+  <si>
+    <t>get memory from gpu in high pieces</t>
+  </si>
+  <si>
+    <t>cp.cuda.MemoryPool.free_all_blocks() needs argument</t>
+  </si>
+  <si>
+    <r>
+      <t>free_all_blocks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> is an instance method, not a class method</t>
+    </r>
+  </si>
+  <si>
+    <t>"https://github.com/cupy/cupy/issues/578"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorrect results </t>
+  </si>
+  <si>
+    <t>Incorrect results in Matrix multiplication using shared memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boundary checking need to be done </t>
+  </si>
+  <si>
+    <t>"https://github.com/codezonediitj/adaboost/issues/8"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/TensorRT/issues/674"</t>
+  </si>
+  <si>
+    <t>Multi-GPU implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultI GPU communication output starnge results </t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/PyProf/issues/33"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/KernelAbstractions.jl/issues/112"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/40020"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operations are executed on switeched streams </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math.Round() truncates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">casting/converting issue fixed by updated iGPU version </t>
+  </si>
+  <si>
+    <t>"https://github.com/m4rs-mt/ILGPU.Samples/issues/10"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Reduce batch size                                                                                                        2. Set GPU_MEM to the lowest (https://www.raspberrypi.org/documentation/configuration/config-txt/memory.md) for memory leak issue                                                                   3.Increasing shared memory content in Multi-gpu                                             4. Update to correct versions/Drivers can fix some OOM issues                                    5. Input size mismatch (Correct by checking it)                                                      6. set correct CUDA_MEMCHECK_PATCH_MODULE                                               7. Unified Memory to save GPU memory.                                                               8. Reduce the block size </t>
+  </si>
+  <si>
+    <t>"https://github.com/huggingface/transformers/issues/3495"  (8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUDA executor always calls cudaDeviceReset() and frees all allocated memory </t>
+  </si>
+  <si>
+    <t>"https://github.com/ginkgo-project/ginkgo/issues/461"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unidenified cudaDeviceReset() in code </t>
+  </si>
+  <si>
+    <t>https://github.com/lksriemer/ginkgo/commit/4ece63b1c3b0935eb2be93023d12bf11bab30b4f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allocating host memory twice in code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuPy takes twice the time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fix the code </t>
+  </si>
+  <si>
+    <t>"https://github.com/cupy/cupy/issues/3452"</t>
+  </si>
+  <si>
+    <t>"https://github.com/cupy/cupy/issues/3431"</t>
+  </si>
+  <si>
+    <t>Copy memory-mapped file into cuPy arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a device array from GPU pointer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add additional code into the program that prevents reset                                 https://docs.nvidia.com/cuda/cuda-runtime-api/group__CUDART__DEVICE.html#group__CUDART__DEVICE_1gef69dd5c6d0206c2b8d099abac61f217 </t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/cuda-samples/issues/44"</t>
+  </si>
+  <si>
+    <r>
+      <t>try e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CUDA.pow(x,Float64(Int(y)))</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">cuda.pow() fails with float64 type </t>
+  </si>
+  <si>
+    <t>"https://github.com/cupy/cupy/issues/3452"                                                  "https://github.com/JuliaGPU/CUDA.jl/issues/71"</t>
+  </si>
+  <si>
+    <t>"https://github.com/DiligentGraphics/DiligentEngine/issues/87"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong results </t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/38642"</t>
+  </si>
+  <si>
+    <t>"https://github.com/mratsim/weave/issues/133"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to use proivded GPU memory </t>
+  </si>
+  <si>
+    <t>Move malloc and memcpy to their own function. </t>
+  </si>
+  <si>
+    <t>"https://github.com/garrettwrong/cuTWED/issues/2"</t>
+  </si>
+  <si>
+    <t>Manage device functions</t>
+  </si>
+  <si>
+    <t>https://github.com/garrettwrong/cuTWED/commit/d686a786336c5e78a102efdb83c34f063bbd3cc5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> synchronize CUDA streams when using MPI.                                      </t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/mpi-cuda-stream/80702/5</t>
+  </si>
+  <si>
+    <t>Error in cuda mem allocator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrong results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">change dimensions by +1 in mem allocating functions. </t>
+  </si>
+  <si>
+    <t>"https://github.com/autowarefoundation/autoware/issues/111"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CUDA.jl/issues/61"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fails to copy from a device to a host array or vice versa </t>
+  </si>
+  <si>
+    <t> type mismatch (Float32 vs Float64).</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CUDA.jl/issues/105"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1497,6 +1768,27 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1844,7 +2136,7 @@
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1970,12 +2262,34 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2333,10 +2647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE7409F-EF6D-4DCD-8C84-B653603F1772}">
-  <dimension ref="A1:E226"/>
+  <dimension ref="A1:E255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="C227" sqref="C227"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="D230" sqref="D230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2362,1957 +2676,2280 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="66" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>287</v>
+      <c r="B2" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>419</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="5" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="18" customFormat="1">
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="18" customFormat="1">
+      <c r="A13" s="72"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="18" customFormat="1">
+      <c r="A14" s="72"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="18" customFormat="1">
+      <c r="A15" s="72"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="18" customFormat="1">
+      <c r="A16" s="72"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="18" customFormat="1">
+      <c r="A17" s="72"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="18" customFormat="1">
+      <c r="A19" s="72"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="18" customFormat="1">
+      <c r="A20" s="72"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="18" customFormat="1">
+      <c r="A21" s="72"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="18" customFormat="1">
+      <c r="A22" s="72"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="18" customFormat="1">
+      <c r="A23" s="72"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="18" customFormat="1">
+      <c r="A24" s="72"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="18" customFormat="1">
+      <c r="A25" s="72"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="18" customFormat="1">
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="18" customFormat="1">
+      <c r="A27" s="72"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="18" customFormat="1">
+      <c r="A28" s="72"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30">
+      <c r="A29" s="72"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="18" customFormat="1">
+      <c r="A30" s="72"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="18" customFormat="1" ht="45">
+      <c r="A31" s="72"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="61" customFormat="1">
+      <c r="A32" s="72"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="E32" s="46"/>
+    </row>
+    <row r="33" spans="1:5" s="61" customFormat="1">
+      <c r="A33" s="72"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="E33" s="70"/>
+    </row>
+    <row r="34" spans="1:5" s="18" customFormat="1">
+      <c r="A34" s="72"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="18" customFormat="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="18" customFormat="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="18" customFormat="1">
-      <c r="A14" s="65"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="18" customFormat="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="18" customFormat="1">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="18" customFormat="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="18" customFormat="1">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="18" customFormat="1">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="18" customFormat="1">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="18" customFormat="1">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="18" customFormat="1">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="18" customFormat="1">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="18" customFormat="1">
-      <c r="A25" s="65"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="18" customFormat="1">
-      <c r="A26" s="65"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="18" customFormat="1">
-      <c r="A27" s="65"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="18" customFormat="1">
-      <c r="A28" s="65"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30">
-      <c r="A29" s="65"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="18" customFormat="1">
-      <c r="A30" s="65"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="18" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="18" customFormat="1" ht="45">
-      <c r="A31" s="65"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="61" customFormat="1">
-      <c r="A32" s="65"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="61" t="s">
-        <v>349</v>
-      </c>
-      <c r="E32" s="46"/>
-    </row>
-    <row r="33" spans="1:5" s="18" customFormat="1">
-      <c r="A33" s="65"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
+      <c r="C35" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="33">
-      <c r="A35" s="65" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="33">
+      <c r="A36" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="18" customFormat="1" ht="45">
-      <c r="A36" s="65"/>
-      <c r="B36" s="66" t="s">
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="45">
+      <c r="A37" s="72"/>
+      <c r="B37" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="D37" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="18" customFormat="1">
-      <c r="A37" s="65"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="23" t="s">
-        <v>299</v>
-      </c>
     </row>
     <row r="38" spans="1:5" s="18" customFormat="1">
-      <c r="A38" s="65"/>
-      <c r="B38" s="66"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="30"/>
-      <c r="D38" s="18" t="s">
-        <v>306</v>
+      <c r="D38" s="23" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="18" customFormat="1">
-      <c r="A39" s="65"/>
-      <c r="B39" s="66"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="30"/>
       <c r="D39" s="18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A40" s="65"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="7" t="s">
-        <v>83</v>
-      </c>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="18" customFormat="1">
+      <c r="A40" s="72"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="16.5">
+      <c r="A41" s="72"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" s="18" customFormat="1">
-      <c r="A41" s="65"/>
-      <c r="B41" s="26" t="s">
+      <c r="D41" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="18" customFormat="1">
+      <c r="A42" s="72"/>
+      <c r="B42" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="D42" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="50" customFormat="1" ht="45">
-      <c r="A42" s="65"/>
-      <c r="B42" s="45" t="s">
+    </row>
+    <row r="43" spans="1:5" s="50" customFormat="1" ht="45">
+      <c r="A43" s="72"/>
+      <c r="B43" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="D43" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="C42" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="D42" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="61" customFormat="1" ht="45">
-      <c r="A43" s="65"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="61" t="s">
-        <v>371</v>
-      </c>
-      <c r="E43" s="63" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="18" customFormat="1">
-      <c r="A44" s="65"/>
-      <c r="B44" s="35"/>
+      <c r="E43" s="45" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="61" customFormat="1" ht="45">
+      <c r="A44" s="72"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="30"/>
-      <c r="D44" s="23" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="18" customFormat="1" ht="45">
-      <c r="A45" s="26" t="s">
+      <c r="D44" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="E44" s="63" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="18" customFormat="1">
+      <c r="A45" s="72"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="45">
+      <c r="A46" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="C46" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="D46" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D45" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A46" s="25"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A47" s="65" t="s">
+      <c r="E46" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="16.5">
+      <c r="A47" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="68" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="34.5" customHeight="1">
+      <c r="A48" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="18" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A48" s="65"/>
-      <c r="B48" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="18" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A49" s="65"/>
-      <c r="B49" s="33"/>
+    <row r="49" spans="1:4" s="18" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A49" s="72"/>
+      <c r="B49" s="33" t="s">
+        <v>190</v>
+      </c>
       <c r="C49" s="26"/>
       <c r="D49" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="18" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A50" s="72"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A51" s="72"/>
+      <c r="C51" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="18" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A52" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="18" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A53" s="72"/>
+      <c r="C53" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="18" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A54" s="72"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="26" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A50" s="65"/>
-      <c r="C50" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A51" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="18" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A52" s="65"/>
-      <c r="C52" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="18" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A53" s="65"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A54" s="65"/>
-      <c r="B54" s="29" t="s">
+    <row r="55" spans="1:4" ht="38.25" customHeight="1">
+      <c r="A55" s="72"/>
+      <c r="B55" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="D54" s="18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="61" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A55" s="65"/>
-      <c r="B55" s="29"/>
-      <c r="D55" s="61" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="18" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A56" s="65"/>
+    </row>
+    <row r="56" spans="1:4" s="61" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A56" s="72"/>
       <c r="B56" s="29"/>
-      <c r="D56" s="18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="30">
-      <c r="A57" t="s">
+      <c r="D56" s="61" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="18" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A57" s="72"/>
+      <c r="B57" s="29"/>
+      <c r="D57" s="18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30">
+      <c r="A58" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="18" customFormat="1"/>
-    <row r="60" spans="1:5" ht="30">
-      <c r="A60" t="s">
+    <row r="60" spans="1:4" s="18" customFormat="1"/>
+    <row r="61" spans="1:4" ht="30">
+      <c r="A61" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="18" customFormat="1">
+      <c r="B62" s="12"/>
+      <c r="D62" s="12"/>
+    </row>
+    <row r="63" spans="1:4" ht="25.5" customHeight="1">
+      <c r="A63" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="C60" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="18" customFormat="1">
-      <c r="B61" s="12"/>
-      <c r="D61" s="12"/>
-    </row>
-    <row r="62" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A62" s="65" t="s">
+      <c r="B63" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="C63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C62" t="s">
+    </row>
+    <row r="64" spans="1:4" s="18" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A64" s="72"/>
+      <c r="B64" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="18" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A63" s="65"/>
-      <c r="B63" s="12" t="s">
+      <c r="C64" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="D64" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="18" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A64" s="65"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="E64" s="39" t="s">
-        <v>307</v>
-      </c>
     </row>
     <row r="65" spans="1:5" s="18" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A65" s="28"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="27"/>
       <c r="C65" s="20"/>
-    </row>
-    <row r="66" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A66" s="66" t="s">
+      <c r="D65" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="18" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A66" s="28"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="20"/>
+    </row>
+    <row r="67" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A67" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="15" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A68" s="73"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A69" s="73"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="18" customFormat="1" ht="24" customHeight="1">
+      <c r="A70" s="73"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="18" customFormat="1" ht="18" customHeight="1">
+      <c r="A71" s="73"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="A72" s="73"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="18" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A73" s="73"/>
+      <c r="B73" s="73"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A74" s="73"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="18" customFormat="1" ht="18" customHeight="1">
+      <c r="A75" s="73"/>
+      <c r="B75" s="73"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="18" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A76" s="73"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="18" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A77" s="73"/>
+      <c r="B77" s="73"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A78" s="73"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A79" s="73"/>
+      <c r="B79" s="73"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A80" s="73"/>
+      <c r="B80" s="73"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A81" s="73"/>
+      <c r="B81" s="73"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A82" s="73"/>
+      <c r="B82" s="73"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A83" s="73"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A84" s="73"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="E84" s="39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="61" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A85" s="73"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="61" t="s">
+        <v>376</v>
+      </c>
+      <c r="E85" s="65"/>
+    </row>
+    <row r="86" spans="1:5" s="16" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A86" s="73"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="24" customHeight="1">
+      <c r="A87" s="73"/>
+      <c r="B87" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="66" t="s">
+    </row>
+    <row r="88" spans="1:5" ht="33" customHeight="1">
+      <c r="A88" s="73"/>
+      <c r="B88" s="73"/>
+      <c r="C88" s="73"/>
+      <c r="D88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="33" customHeight="1">
+      <c r="A89" s="73"/>
+      <c r="B89" s="73"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1">
+      <c r="A90" s="73"/>
+      <c r="B90" s="73"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="33" customHeight="1">
+      <c r="A91" s="73"/>
+      <c r="B91" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D91" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1">
+      <c r="A92" s="73"/>
+      <c r="B92" s="73"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1">
+      <c r="A93" s="73"/>
+      <c r="B93" s="73"/>
+      <c r="C93" s="35"/>
+    </row>
+    <row r="94" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1">
+      <c r="A94" s="73"/>
+      <c r="B94" s="73"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C66" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="15" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A67" s="66"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E67"/>
-    </row>
-    <row r="68" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A68" s="66"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="18" customFormat="1" ht="24" customHeight="1">
-      <c r="A69" s="66"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A70" s="66"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A71" s="66"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="18" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A72" s="66"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A73" s="66"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A74" s="66"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="18" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A75" s="66"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="18" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A76" s="66"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A77" s="66"/>
-      <c r="B77" s="66"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A78" s="66"/>
-      <c r="B78" s="66"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A79" s="66"/>
-      <c r="B79" s="66"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A80" s="66"/>
-      <c r="B80" s="66"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A81" s="66"/>
-      <c r="B81" s="66"/>
-      <c r="C81" s="66"/>
-      <c r="D81" s="18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A82" s="66"/>
-      <c r="B82" s="66"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A83" s="66"/>
-      <c r="B83" s="66"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E83" s="39" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A84" s="66"/>
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="24" customHeight="1">
-      <c r="A85" s="66"/>
-      <c r="B85" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="C85" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="D85" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="33" customHeight="1">
-      <c r="A86" s="66"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="66"/>
-      <c r="D86" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="33" customHeight="1">
-      <c r="A87" s="66"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1">
-      <c r="A88" s="66"/>
-      <c r="B88" s="66"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="33" customHeight="1">
-      <c r="A89" s="66"/>
-      <c r="B89" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D89" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1">
-      <c r="A90" s="66"/>
-      <c r="B90" s="66"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1">
-      <c r="A91" s="66"/>
-      <c r="B91" s="66"/>
-      <c r="C91" s="35"/>
-    </row>
-    <row r="92" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1">
-      <c r="A92" s="66"/>
-      <c r="B92" s="66"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="33" customHeight="1">
-      <c r="A93" s="8"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-    </row>
-    <row r="94" spans="1:5" ht="33" customHeight="1">
-      <c r="A94" s="8"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
     </row>
     <row r="95" spans="1:5" ht="33" customHeight="1">
       <c r="A95" s="8"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="65" t="s">
+    <row r="96" spans="1:5" ht="33" customHeight="1">
+      <c r="A96" s="8"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+    </row>
+    <row r="97" spans="1:5" ht="33" customHeight="1">
+      <c r="A97" s="8"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B96" s="66" t="s">
+      <c r="B98" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="45">
-      <c r="A97" s="65"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="4" t="s">
+    <row r="99" spans="1:5" ht="45">
+      <c r="A99" s="72"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D99" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A98" s="65"/>
-      <c r="B98" s="36"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A99" s="28"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="6"/>
-    </row>
     <row r="100" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
+      <c r="A100" s="72"/>
+      <c r="B100" s="36"/>
       <c r="C100" s="4"/>
-      <c r="D100" s="6"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
+      <c r="D100" s="18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="18" customFormat="1" ht="16.5">
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="1:5" s="18" customFormat="1" ht="16.5">
+      <c r="A102" s="25"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" t="s">
         <v>144</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C103" t="s">
         <v>145</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D103" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="D101" s="18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" s="18" customFormat="1" ht="43.5">
-      <c r="A102" s="66" t="s">
+    </row>
+    <row r="104" spans="1:5" s="18" customFormat="1" ht="43.5">
+      <c r="A104" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="B104" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="C104" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C102" s="26" t="s">
+      <c r="D104" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D102" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E102" s="26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="18" customFormat="1">
-      <c r="A103" s="66"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="E103" s="35"/>
-    </row>
-    <row r="104" spans="1:5" s="18" customFormat="1">
-      <c r="A104" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="B104" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="C104" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="D104" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="E104" s="26"/>
+      <c r="E104" s="26" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="105" spans="1:5" s="18" customFormat="1">
-      <c r="A105" s="40"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="29"/>
       <c r="C105" s="35"/>
+      <c r="D105" s="18" t="s">
+        <v>265</v>
+      </c>
       <c r="E105" s="35"/>
     </row>
     <row r="106" spans="1:5" s="18" customFormat="1">
-      <c r="A106" s="40"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="35"/>
-      <c r="E106" s="35"/>
-    </row>
-    <row r="107" spans="1:5" s="18" customFormat="1" ht="45">
-      <c r="A107" s="24" t="s">
+      <c r="A106" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="B106" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="E106" s="26"/>
+    </row>
+    <row r="107" spans="1:5" s="18" customFormat="1">
+      <c r="A107" s="40"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="35"/>
+      <c r="E107" s="35"/>
+    </row>
+    <row r="108" spans="1:5" s="18" customFormat="1">
+      <c r="A108" s="40"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="35"/>
+      <c r="E108" s="35"/>
+    </row>
+    <row r="109" spans="1:5" s="18" customFormat="1" ht="45">
+      <c r="A109" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B109" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="B107" s="41" t="s">
+      <c r="C109" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="C107" s="30" t="s">
+      <c r="D109" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="D107" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="E107" s="35" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="30">
-      <c r="A109" t="s">
+      <c r="E109" s="35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="30">
+      <c r="A111" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A112" s="65" t="s">
+      <c r="D111" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="22.5" customHeight="1">
+      <c r="A114" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="B112" s="65" t="s">
+      <c r="B114" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C114" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" s="18" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A115" s="72"/>
+      <c r="B115" s="72"/>
+      <c r="C115" s="72"/>
+      <c r="D115" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C112" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" s="18" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A113" s="65"/>
-      <c r="B113" s="65"/>
-      <c r="C113" s="65"/>
-      <c r="D113" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A114" s="65"/>
-      <c r="B114" s="65"/>
-      <c r="C114" s="65"/>
-      <c r="D114" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" s="18" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A115" s="65"/>
-      <c r="B115" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C115" s="21" t="s">
+    </row>
+    <row r="116" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A116" s="72"/>
+      <c r="B116" s="72"/>
+      <c r="C116" s="72"/>
+      <c r="D116" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="18" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A117" s="72"/>
+      <c r="B117" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D117" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D115" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" s="18" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A116" s="65"/>
-      <c r="B116" s="28" t="s">
+    </row>
+    <row r="118" spans="1:4" s="18" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A118" s="72"/>
+      <c r="B118" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C118" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="C116" s="32" t="s">
+      <c r="D118" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="D116" s="18" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" s="18" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A117" s="25" t="s">
+    </row>
+    <row r="119" spans="1:4" s="18" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A119" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B119" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="B117" s="25" t="s">
+      <c r="C119" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="C117" s="29" t="s">
+      <c r="D119" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D117" s="18" t="s">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="72" t="s">
+        <v>410</v>
+      </c>
+      <c r="B121" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C121" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="72"/>
+      <c r="B122" s="72"/>
+      <c r="C122" s="72"/>
+      <c r="D122" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="72"/>
+      <c r="B123" s="72"/>
+      <c r="D123" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="72"/>
+      <c r="B124" s="72"/>
+      <c r="C124" t="s">
+        <v>99</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="18" customFormat="1">
+      <c r="A125" s="72"/>
+      <c r="B125" s="72"/>
+      <c r="D125" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="72"/>
+      <c r="B126" s="72"/>
+      <c r="D126" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="30">
+      <c r="A127" s="72"/>
+      <c r="B127" t="s">
+        <v>118</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" s="18" customFormat="1">
+      <c r="A128" s="72"/>
+      <c r="B128" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" s="18" customFormat="1">
+      <c r="A129" s="72"/>
+      <c r="C129" s="73"/>
+      <c r="D129" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" s="55" customFormat="1">
+      <c r="A130" s="72"/>
+      <c r="C130" s="73"/>
+      <c r="D130" s="56" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" s="18" customFormat="1">
+      <c r="A131" s="72"/>
+      <c r="C131" s="73"/>
+      <c r="D131" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" s="61" customFormat="1">
+      <c r="A132" s="72"/>
+      <c r="B132" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="C132" s="67"/>
+      <c r="D132" s="71" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="54" customFormat="1" ht="30">
+      <c r="A133" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="B133" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="C133" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="D133" s="55" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" s="58" customFormat="1">
+      <c r="A134" s="45"/>
+      <c r="C134" s="45"/>
+    </row>
+    <row r="135" spans="1:5" s="18" customFormat="1">
+      <c r="A135" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C135" s="26"/>
+      <c r="D135" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" s="58" customFormat="1" ht="16.5">
+      <c r="A136" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="B136" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="C136" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="D136" s="59" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="25.5">
+      <c r="A137" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="B137" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="C137" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" s="18" customFormat="1"/>
+    <row r="139" spans="1:5" ht="30">
+      <c r="A139" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139" t="s">
+        <v>72</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="72"/>
+      <c r="D140" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="72"/>
+      <c r="D141" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="30">
+      <c r="A142" s="72"/>
+      <c r="B142" t="s">
+        <v>162</v>
+      </c>
+      <c r="D142" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E142" s="77" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" s="61" customFormat="1">
+      <c r="A143" s="72"/>
+      <c r="D143" s="75" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="60">
+      <c r="A144" s="72"/>
+      <c r="B144" s="72" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B119" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="C119" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="65"/>
-      <c r="B120" s="65"/>
-      <c r="C120" s="65"/>
-      <c r="D120" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="65"/>
-      <c r="B121" s="65"/>
-      <c r="D121" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="65"/>
-      <c r="B122" s="65"/>
-      <c r="C122" t="s">
-        <v>100</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" s="18" customFormat="1">
-      <c r="A123" s="65"/>
-      <c r="B123" s="65"/>
-      <c r="D123" s="18" t="s">
+      <c r="C144" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" s="61" customFormat="1">
+      <c r="A145" s="72"/>
+      <c r="B145" s="72"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="71" t="s">
+        <v>409</v>
+      </c>
+      <c r="E145" s="67"/>
+    </row>
+    <row r="146" spans="1:5" s="18" customFormat="1">
+      <c r="A146" s="72"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E146" s="26"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="72"/>
+      <c r="D147" s="23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" s="18" customFormat="1">
+      <c r="A148" s="72"/>
+      <c r="D148" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" s="51" customFormat="1">
+      <c r="A149" s="72"/>
+      <c r="D149" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" s="61" customFormat="1">
+      <c r="A150" s="72"/>
+      <c r="C150" s="61" t="s">
+        <v>388</v>
+      </c>
+      <c r="D150" s="68" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" s="56" customFormat="1" ht="45">
+      <c r="A151" s="72"/>
+      <c r="B151" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="C151" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="D151" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="E151" s="45" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="72"/>
+      <c r="B152" s="72" t="s">
+        <v>316</v>
+      </c>
+      <c r="D152" s="52" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" s="61" customFormat="1">
+      <c r="A153" s="72"/>
+      <c r="B153" s="72"/>
+      <c r="D153" s="71" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" s="61" customFormat="1">
+      <c r="A154" s="72"/>
+      <c r="B154" s="72"/>
+      <c r="D154" s="68" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" s="61" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A155" s="72"/>
+      <c r="B155" s="72"/>
+      <c r="D155" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="E155" s="66" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" s="61" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A156" s="72"/>
+      <c r="B156" s="69" t="s">
+        <v>438</v>
+      </c>
+      <c r="C156" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="D156" s="68" t="s">
+        <v>439</v>
+      </c>
+      <c r="E156" s="70" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" s="18" customFormat="1">
+      <c r="A157" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="B157" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="C157" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="D157" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" s="61" customFormat="1">
+      <c r="A158" s="73"/>
+      <c r="B158" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="C158" s="32"/>
+      <c r="D158" s="75" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" s="18" customFormat="1">
+      <c r="A159" s="36"/>
+      <c r="C159" s="31"/>
+      <c r="E159" s="26"/>
+    </row>
+    <row r="160" spans="1:5" s="18" customFormat="1">
+      <c r="A160" s="25"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="26"/>
+      <c r="E160" s="26"/>
+    </row>
+    <row r="161" spans="1:5" s="18" customFormat="1">
+      <c r="A161" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C161" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E161" s="26"/>
+    </row>
+    <row r="162" spans="1:5" s="18" customFormat="1" ht="60">
+      <c r="A162" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D162" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E162" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="30">
+      <c r="A163" s="73"/>
+      <c r="B163" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C163" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="D163" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="73"/>
+      <c r="D164" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" s="18" customFormat="1" ht="45">
+      <c r="A165" s="72"/>
+      <c r="B165" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C165" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D165" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="18" customFormat="1" ht="16.5">
+      <c r="A167" s="28"/>
+      <c r="B167" s="38"/>
+      <c r="C167" s="27"/>
+      <c r="D167" s="27"/>
+    </row>
+    <row r="168" spans="1:5" s="54" customFormat="1" ht="45">
+      <c r="A168" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="B168" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C168" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D168" s="54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" s="54" customFormat="1" ht="30">
+      <c r="A169" s="72"/>
+      <c r="B169" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="C169" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D169" s="54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" s="53" customFormat="1">
+      <c r="A170" s="72"/>
+      <c r="B170" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="C170" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="D170" s="54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" s="54" customFormat="1" ht="30">
+      <c r="A171" s="72"/>
+      <c r="B171" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C171" s="30"/>
+      <c r="D171" s="54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" s="54" customFormat="1" ht="16.5">
+      <c r="A172" s="72"/>
+      <c r="B172" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C172" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="D172" s="54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" s="57" customFormat="1" ht="16.5">
+      <c r="A173" s="72"/>
+      <c r="B173" s="32"/>
+      <c r="C173" s="37"/>
+    </row>
+    <row r="174" spans="1:5" s="57" customFormat="1" ht="16.5">
+      <c r="A174" s="72"/>
+      <c r="B174" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="C174" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="D174" s="58" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" s="60" customFormat="1" ht="16.5">
+      <c r="A175" s="72"/>
+      <c r="B175" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="C175" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="D175" s="61" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" s="61" customFormat="1" ht="16.5">
+      <c r="A176" s="72"/>
+      <c r="B176" s="48"/>
+      <c r="C176" s="37"/>
+      <c r="D176" s="75" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" s="54" customFormat="1">
+      <c r="A177" s="72"/>
+      <c r="D177" s="54" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="61" customFormat="1">
+      <c r="A178" s="62"/>
+    </row>
+    <row r="179" spans="1:5" s="61" customFormat="1" ht="29.25">
+      <c r="A179" s="62" t="s">
+        <v>358</v>
+      </c>
+      <c r="B179" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="C179" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="D179" s="61" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" s="61" customFormat="1">
+      <c r="A180" s="44"/>
+    </row>
+    <row r="181" spans="1:5" s="18" customFormat="1" ht="29.25">
+      <c r="A181" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="B181" s="32"/>
+      <c r="C181" s="32" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="65"/>
-      <c r="B124" s="65"/>
-      <c r="D124" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="30">
-      <c r="A125" s="65"/>
-      <c r="B125" t="s">
-        <v>119</v>
-      </c>
-      <c r="C125" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D125" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" s="18" customFormat="1">
-      <c r="A126" s="65"/>
-      <c r="B126" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C126" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" s="18" customFormat="1">
-      <c r="A127" s="65"/>
-      <c r="C127" s="66"/>
-      <c r="D127" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" s="55" customFormat="1">
-      <c r="A128" s="65"/>
-      <c r="C128" s="66"/>
-      <c r="D128" s="56" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" s="18" customFormat="1">
-      <c r="A129" s="65"/>
-      <c r="C129" s="66"/>
-      <c r="D129" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" s="54" customFormat="1" ht="30">
-      <c r="A130" s="45" t="s">
-        <v>324</v>
-      </c>
-      <c r="B130" s="54" t="s">
+      <c r="D181" s="65" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" s="18" customFormat="1">
+      <c r="A182" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B182" s="26"/>
+      <c r="C182" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="D182" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" s="18" customFormat="1" ht="45">
+      <c r="A183" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B183" s="26"/>
+      <c r="C183" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D183" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E183" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" s="18" customFormat="1">
+      <c r="B184" s="26"/>
+      <c r="C184" s="30"/>
+      <c r="E184" s="26"/>
+    </row>
+    <row r="185" spans="1:5" s="18" customFormat="1">
+      <c r="B185" s="26"/>
+      <c r="C185" s="30"/>
+      <c r="E185" s="26"/>
+    </row>
+    <row r="186" spans="1:5" s="18" customFormat="1" ht="120">
+      <c r="A186" s="72" t="s">
+        <v>209</v>
+      </c>
+      <c r="B186" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C186" s="30"/>
+      <c r="D186" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E186" s="26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" s="61" customFormat="1" ht="29.25">
+      <c r="A187" s="72"/>
+      <c r="B187" s="63" t="s">
+        <v>373</v>
+      </c>
+      <c r="C187" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="D187" s="61" t="s">
+        <v>375</v>
+      </c>
+      <c r="E187" s="63"/>
+    </row>
+    <row r="188" spans="1:5" s="61" customFormat="1">
+      <c r="A188" s="72"/>
+      <c r="B188" s="70" t="s">
+        <v>416</v>
+      </c>
+      <c r="C188" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="D188" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="E188" s="70"/>
+    </row>
+    <row r="189" spans="1:5" s="61" customFormat="1" ht="30.75">
+      <c r="A189" s="69"/>
+      <c r="B189" s="70" t="s">
+        <v>435</v>
+      </c>
+      <c r="C189" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="D189" s="76" t="s">
+        <v>436</v>
+      </c>
+      <c r="E189" s="70"/>
+    </row>
+    <row r="190" spans="1:5" ht="43.5">
+      <c r="A190" t="s">
+        <v>377</v>
+      </c>
+      <c r="B190" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="C190" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="D190" s="61" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="30">
+      <c r="A191" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="B191" t="s">
+        <v>308</v>
+      </c>
+      <c r="D191" s="49" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="D194" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="72"/>
+      <c r="D195" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="72"/>
+      <c r="D196" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" s="18" customFormat="1">
+      <c r="A197" s="72"/>
+      <c r="D197" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B198" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="D198" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" s="18" customFormat="1" ht="45">
+      <c r="A199" s="72"/>
+      <c r="B199" s="72"/>
+      <c r="D199" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E199" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" s="18" customFormat="1" ht="45">
+      <c r="A200" s="72"/>
+      <c r="B200" s="72"/>
+      <c r="C200" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E200" s="26"/>
+    </row>
+    <row r="201" spans="1:5" s="18" customFormat="1">
+      <c r="A201" s="72"/>
+      <c r="B201" s="72"/>
+      <c r="C201" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D201" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E201" s="26"/>
+    </row>
+    <row r="202" spans="1:5" s="18" customFormat="1">
+      <c r="A202" s="72"/>
+      <c r="B202" s="72"/>
+      <c r="C202" s="30"/>
+      <c r="D202" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E202" s="27"/>
+    </row>
+    <row r="203" spans="1:5" s="18" customFormat="1">
+      <c r="A203" s="72"/>
+      <c r="B203" s="72"/>
+      <c r="C203" s="30"/>
+      <c r="D203" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="E203" s="35"/>
+    </row>
+    <row r="204" spans="1:5" s="61" customFormat="1">
+      <c r="A204" s="72"/>
+      <c r="B204" s="72"/>
+      <c r="C204" s="30"/>
+      <c r="D204" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="E204" s="46"/>
+    </row>
+    <row r="205" spans="1:5" s="18" customFormat="1">
+      <c r="A205" s="72"/>
+      <c r="B205" s="72"/>
+      <c r="C205" s="30"/>
+      <c r="D205" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E205" s="26"/>
+    </row>
+    <row r="206" spans="1:5" s="18" customFormat="1">
+      <c r="A206" s="72"/>
+      <c r="B206" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C206" s="30"/>
+      <c r="D206" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="E206" s="39"/>
+    </row>
+    <row r="207" spans="1:5" ht="45">
+      <c r="A207" s="72"/>
+      <c r="B207" t="s">
+        <v>128</v>
+      </c>
+      <c r="C207" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="90">
+      <c r="A212" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B212" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D212" s="26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" s="18" customFormat="1">
+      <c r="A215" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="B215" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C215" s="31"/>
+      <c r="D215" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E215" s="26"/>
+    </row>
+    <row r="216" spans="1:5" s="18" customFormat="1">
+      <c r="A216" s="72"/>
+      <c r="C216" s="31"/>
+      <c r="D216" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E216" s="27"/>
+    </row>
+    <row r="217" spans="1:5" s="61" customFormat="1">
+      <c r="A217" s="72"/>
+      <c r="C217" s="31"/>
+      <c r="D217" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="E217" s="46"/>
+    </row>
+    <row r="218" spans="1:5" s="18" customFormat="1" ht="16.5">
+      <c r="A218" s="72"/>
+      <c r="B218" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C218" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="D218" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E218" s="27"/>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="72"/>
+      <c r="D219" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" s="18" customFormat="1" ht="16.5">
+      <c r="A220" s="72"/>
+      <c r="B220" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C220" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="D220" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" s="18" customFormat="1" ht="16.5">
+      <c r="A221" s="72"/>
+      <c r="B221" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C221" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="D221" s="18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="D222" s="53" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" s="53" customFormat="1"/>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>234</v>
+      </c>
+      <c r="C224" t="s">
+        <v>235</v>
+      </c>
+      <c r="D224" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="45">
+      <c r="B225" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="C225" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="D225" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>259</v>
+      </c>
+      <c r="D228" s="23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="30">
+      <c r="A230" t="s">
         <v>325</v>
       </c>
-      <c r="C130" s="45" t="s">
+      <c r="B230" t="s">
         <v>326</v>
       </c>
-      <c r="D130" s="55" t="s">
+      <c r="C230" t="s">
+        <v>328</v>
+      </c>
+      <c r="D230" s="45" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="131" spans="1:5" s="58" customFormat="1">
-      <c r="A131" s="45"/>
-      <c r="C131" s="45"/>
-    </row>
-    <row r="132" spans="1:5" s="18" customFormat="1">
-      <c r="A132" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C132" s="26"/>
-      <c r="D132" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" s="58" customFormat="1" ht="16.5">
-      <c r="A133" s="58" t="s">
-        <v>342</v>
-      </c>
-      <c r="B133" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="C133" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="D133" s="59" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="25.5">
-      <c r="A134" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="B134" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="C134" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="D134" s="18" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" s="18" customFormat="1"/>
-    <row r="136" spans="1:5" ht="30">
-      <c r="A136" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C136" t="s">
-        <v>73</v>
-      </c>
-      <c r="D136" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="65"/>
-      <c r="D137" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="65"/>
-      <c r="D138" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="65"/>
-      <c r="B139" t="s">
-        <v>163</v>
-      </c>
-      <c r="D139" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="60">
-      <c r="A140" s="65"/>
-      <c r="B140" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C140" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D140" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="E140" s="26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" s="18" customFormat="1">
-      <c r="A141" s="65"/>
-      <c r="C141" s="31"/>
-      <c r="D141" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="E141" s="26"/>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="65"/>
-      <c r="D142" s="23" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" s="18" customFormat="1">
-      <c r="A143" s="65"/>
-      <c r="D143" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" s="51" customFormat="1">
-      <c r="A144" s="65"/>
-      <c r="D144" s="18" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" s="56" customFormat="1" ht="45">
-      <c r="A145" s="65"/>
-      <c r="B145" s="56" t="s">
-        <v>334</v>
-      </c>
-      <c r="C145" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="D145" s="57" t="s">
-        <v>333</v>
-      </c>
-      <c r="E145" s="45" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="65"/>
-      <c r="B146" t="s">
-        <v>319</v>
-      </c>
-      <c r="D146" s="52" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="18" customFormat="1" ht="30">
-      <c r="A147" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="B147" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="C147" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="D147" s="18" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" s="18" customFormat="1">
-      <c r="A148" s="36"/>
-      <c r="C148" s="31"/>
-      <c r="E148" s="26"/>
-    </row>
-    <row r="149" spans="1:5" s="18" customFormat="1">
-      <c r="A149" s="25"/>
-      <c r="C149" s="31"/>
-      <c r="D149" s="26"/>
-      <c r="E149" s="26"/>
-    </row>
-    <row r="150" spans="1:5" s="18" customFormat="1">
-      <c r="A150" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="B150" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C150" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="D150" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E150" s="26"/>
-    </row>
-    <row r="151" spans="1:5" s="18" customFormat="1" ht="60">
-      <c r="A151" s="66" t="s">
-        <v>239</v>
-      </c>
-      <c r="B151" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C151" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D151" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E151" s="26" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="30">
-      <c r="A152" s="66"/>
-      <c r="B152" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="C152" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="D152" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="66"/>
-      <c r="D153" s="18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" s="18" customFormat="1" ht="45">
-      <c r="A154" s="65"/>
-      <c r="B154" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="C154" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="D154" s="27" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A156" s="28"/>
-      <c r="B156" s="38"/>
-      <c r="C156" s="27"/>
-      <c r="D156" s="27"/>
-    </row>
-    <row r="157" spans="1:5" s="54" customFormat="1" ht="45">
-      <c r="A157" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="B157" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="C157" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="D157" s="54" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" s="54" customFormat="1" ht="30">
-      <c r="A158" s="65"/>
-      <c r="B158" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="C158" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="D158" s="54" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" s="53" customFormat="1">
-      <c r="A159" s="65"/>
-      <c r="B159" s="48" t="s">
-        <v>322</v>
-      </c>
-      <c r="C159" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="D159" s="54" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" s="54" customFormat="1" ht="30">
-      <c r="A160" s="65"/>
-      <c r="B160" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="C160" s="30"/>
-      <c r="D160" s="54" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" s="54" customFormat="1" ht="16.5">
-      <c r="A161" s="65"/>
-      <c r="B161" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C161" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="D161" s="54" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" s="57" customFormat="1" ht="16.5">
-      <c r="A162" s="65"/>
-      <c r="B162" s="32"/>
-      <c r="C162" s="37"/>
-    </row>
-    <row r="163" spans="1:5" s="57" customFormat="1" ht="16.5">
-      <c r="A163" s="65"/>
-      <c r="B163" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="C163" s="37" t="s">
-        <v>338</v>
-      </c>
-      <c r="D163" s="58" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" s="60" customFormat="1" ht="16.5">
-      <c r="A164" s="65"/>
-      <c r="B164" s="48" t="s">
-        <v>346</v>
-      </c>
-      <c r="C164" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="D164" s="61" t="s">
+    <row r="233" spans="1:5" ht="45">
+      <c r="A233" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" s="54" customFormat="1">
-      <c r="A165" s="65"/>
-      <c r="D165" s="54" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" s="61" customFormat="1">
-      <c r="A166" s="62"/>
-    </row>
-    <row r="167" spans="1:5" s="61" customFormat="1" ht="29.25">
-      <c r="A167" s="62" t="s">
-        <v>361</v>
-      </c>
-      <c r="B167" s="29" t="s">
+      <c r="B233" t="s">
+        <v>348</v>
+      </c>
+      <c r="C233" t="s">
+        <v>349</v>
+      </c>
+      <c r="D233" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" s="61" customFormat="1" ht="30">
+      <c r="B234" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="C234" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="D234" s="71" t="s">
+        <v>404</v>
+      </c>
+      <c r="E234" s="6"/>
+    </row>
+    <row r="236" spans="1:5" ht="45">
+      <c r="A236" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="B236" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="C236" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="D236" s="61" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="45.75">
+      <c r="A239" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="C167" s="61" t="s">
+      <c r="B239" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="C239" t="s">
+        <v>364</v>
+      </c>
+      <c r="D239" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="E239" s="63" t="s">
         <v>363</v>
       </c>
-      <c r="D167" s="61" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" s="61" customFormat="1">
-      <c r="A168" s="44"/>
-    </row>
-    <row r="169" spans="1:5" s="18" customFormat="1" ht="29.25">
-      <c r="A169" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="B169" s="32"/>
-      <c r="C169" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="D169" s="18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" s="18" customFormat="1">
-      <c r="A170" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="B170" s="26"/>
-      <c r="C170" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="D170" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" s="18" customFormat="1" ht="45">
-      <c r="A171" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B171" s="26"/>
-      <c r="C171" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="D171" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E171" s="26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" s="18" customFormat="1">
-      <c r="B172" s="26"/>
-      <c r="C172" s="30"/>
-      <c r="E172" s="26"/>
-    </row>
-    <row r="173" spans="1:5" s="18" customFormat="1">
-      <c r="B173" s="26"/>
-      <c r="C173" s="30"/>
-      <c r="E173" s="26"/>
-    </row>
-    <row r="174" spans="1:5" s="18" customFormat="1" ht="120">
-      <c r="A174" s="65" t="s">
-        <v>210</v>
-      </c>
-      <c r="B174" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="C174" s="30"/>
-      <c r="D174" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="E174" s="26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" s="61" customFormat="1" ht="29.25">
-      <c r="A175" s="65"/>
-      <c r="B175" s="63" t="s">
-        <v>376</v>
-      </c>
-      <c r="C175" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="D175" s="61" t="s">
-        <v>378</v>
-      </c>
-      <c r="E175" s="63"/>
-    </row>
-    <row r="176" spans="1:5" ht="30">
-      <c r="A176" s="45" t="s">
-        <v>313</v>
-      </c>
-      <c r="B176" t="s">
-        <v>311</v>
-      </c>
-      <c r="D176" s="49" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" t="s">
-        <v>88</v>
-      </c>
-      <c r="D179" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="D180" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="D181" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" s="18" customFormat="1">
-      <c r="D182" s="23" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="B183" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="D183" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" s="18" customFormat="1" ht="45">
-      <c r="A184" s="65"/>
-      <c r="B184" s="65"/>
-      <c r="D184" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="E184" s="26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" s="18" customFormat="1" ht="45">
-      <c r="A185" s="65"/>
-      <c r="B185" s="65"/>
-      <c r="C185" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="D185" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="E185" s="26"/>
-    </row>
-    <row r="186" spans="1:5" s="18" customFormat="1">
-      <c r="A186" s="65"/>
-      <c r="B186" s="65"/>
-      <c r="C186" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D186" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E186" s="26"/>
-    </row>
-    <row r="187" spans="1:5" s="18" customFormat="1">
-      <c r="A187" s="65"/>
-      <c r="B187" s="65"/>
-      <c r="C187" s="30"/>
-      <c r="D187" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="E187" s="27"/>
-    </row>
-    <row r="188" spans="1:5" s="18" customFormat="1">
-      <c r="A188" s="65"/>
-      <c r="B188" s="65"/>
-      <c r="C188" s="30"/>
-      <c r="D188" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="E188" s="35"/>
-    </row>
-    <row r="189" spans="1:5" s="61" customFormat="1">
-      <c r="A189" s="65"/>
-      <c r="B189" s="65"/>
-      <c r="C189" s="30"/>
-      <c r="D189" s="61" t="s">
-        <v>348</v>
-      </c>
-      <c r="E189" s="46"/>
-    </row>
-    <row r="190" spans="1:5" s="18" customFormat="1">
-      <c r="A190" s="65"/>
-      <c r="B190" s="65"/>
-      <c r="C190" s="30"/>
-      <c r="D190" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="E190" s="26"/>
-    </row>
-    <row r="191" spans="1:5" s="18" customFormat="1">
-      <c r="A191" s="65"/>
-      <c r="B191" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C191" s="30"/>
-      <c r="D191" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="E191" s="39"/>
-    </row>
-    <row r="192" spans="1:5" ht="45">
-      <c r="A192" s="65"/>
-      <c r="B192" t="s">
-        <v>129</v>
-      </c>
-      <c r="C192" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D192" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="90">
-      <c r="A197" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="B197" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="D197" s="26" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" s="18" customFormat="1">
-      <c r="A200" s="65" t="s">
-        <v>234</v>
-      </c>
-      <c r="B200" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="C200" s="31"/>
-      <c r="D200" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E200" s="26"/>
-    </row>
-    <row r="201" spans="1:5" s="18" customFormat="1">
-      <c r="A201" s="65"/>
-      <c r="C201" s="31"/>
-      <c r="D201" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="E201" s="27"/>
-    </row>
-    <row r="202" spans="1:5" s="61" customFormat="1">
-      <c r="A202" s="65"/>
-      <c r="C202" s="31"/>
-      <c r="D202" s="61" t="s">
-        <v>355</v>
-      </c>
-      <c r="E202" s="46"/>
-    </row>
-    <row r="203" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A203" s="65"/>
-      <c r="B203" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="C203" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="D203" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="E203" s="27"/>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="65"/>
-      <c r="D204" s="18" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A205" s="65"/>
-      <c r="B205" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="C205" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="D205" s="18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A206" s="65"/>
-      <c r="B206" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="C206" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="D206" s="18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="D207" s="53" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" s="53" customFormat="1"/>
-    <row r="209" spans="1:5">
-      <c r="A209" t="s">
-        <v>235</v>
-      </c>
-      <c r="C209" t="s">
-        <v>236</v>
-      </c>
-      <c r="D209" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="45">
-      <c r="B210" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="C210" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="D210" s="18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
-        <v>260</v>
-      </c>
-      <c r="D213" s="23" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="30">
-      <c r="A215" t="s">
-        <v>328</v>
-      </c>
-      <c r="B215" t="s">
-        <v>329</v>
-      </c>
-      <c r="C215" t="s">
-        <v>331</v>
-      </c>
-      <c r="D215" s="45" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="45">
-      <c r="A218" t="s">
-        <v>350</v>
-      </c>
-      <c r="B218" t="s">
-        <v>351</v>
-      </c>
-      <c r="C218" t="s">
-        <v>352</v>
-      </c>
-      <c r="D218" s="61" t="s">
-        <v>353</v>
-      </c>
-      <c r="E218" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="45">
-      <c r="A220" s="61" t="s">
-        <v>358</v>
-      </c>
-      <c r="B220" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="C220" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="D220" s="61" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="45.75">
-      <c r="A223" s="63" t="s">
-        <v>365</v>
-      </c>
-      <c r="B223" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="C223" t="s">
-        <v>367</v>
-      </c>
-      <c r="D223" s="61" t="s">
+    </row>
+    <row r="242" spans="1:5" ht="45">
+      <c r="A242" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="E223" s="63" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="45">
-      <c r="A226" t="s">
+      <c r="B242" t="s">
+        <v>370</v>
+      </c>
+      <c r="C242" s="63" t="s">
+        <v>371</v>
+      </c>
+      <c r="D242" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="B226" t="s">
-        <v>373</v>
-      </c>
-      <c r="C226" s="63" t="s">
-        <v>374</v>
-      </c>
-      <c r="D226" s="61" t="s">
-        <v>375</v>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="72"/>
+      <c r="B243" t="s">
+        <v>390</v>
+      </c>
+      <c r="C243" t="s">
+        <v>391</v>
+      </c>
+      <c r="D243" s="68" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="60">
+      <c r="A244" t="s">
+        <v>382</v>
+      </c>
+      <c r="B244" t="s">
+        <v>383</v>
+      </c>
+      <c r="C244" t="s">
+        <v>384</v>
+      </c>
+      <c r="D244" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="E244" s="65" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="75">
+      <c r="A246" t="s">
+        <v>393</v>
+      </c>
+      <c r="B246" s="66" t="s">
+        <v>392</v>
+      </c>
+      <c r="C246" t="s">
+        <v>394</v>
+      </c>
+      <c r="D246" s="68" t="s">
+        <v>395</v>
+      </c>
+      <c r="E246" s="66" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="30">
+      <c r="A248" t="s">
+        <v>405</v>
+      </c>
+      <c r="B248" s="67" t="s">
+        <v>406</v>
+      </c>
+      <c r="C248" t="s">
+        <v>407</v>
+      </c>
+      <c r="D248" s="71" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="60">
+      <c r="A249" t="s">
+        <v>423</v>
+      </c>
+      <c r="B249" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="C249" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="D249" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="E249" s="70" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>425</v>
+      </c>
+      <c r="B250" s="70" t="s">
+        <v>426</v>
+      </c>
+      <c r="C250" t="s">
+        <v>427</v>
+      </c>
+      <c r="D250" s="75" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="B251" s="70" t="s">
+        <v>430</v>
+      </c>
+      <c r="C251" t="s">
+        <v>431</v>
+      </c>
+      <c r="D251" s="75" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="45">
+      <c r="A252" t="s">
+        <v>441</v>
+      </c>
+      <c r="B252" s="70" t="s">
+        <v>444</v>
+      </c>
+      <c r="C252" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="D252" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="E252" s="70" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>448</v>
+      </c>
+      <c r="B253" s="70" t="s">
+        <v>449</v>
+      </c>
+      <c r="C253" t="s">
+        <v>450</v>
+      </c>
+      <c r="D253" s="68" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="30">
+      <c r="A255" s="70" t="s">
+        <v>453</v>
+      </c>
+      <c r="B255" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="D255" s="68" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A2:A33"/>
-    <mergeCell ref="B2:B33"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="A66:A92"/>
-    <mergeCell ref="B183:B190"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="A157:A165"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="C66:C84"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C2:C33"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="B119:B124"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="A200:A206"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="A136:A146"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B66:B84"/>
-    <mergeCell ref="A151:A154"/>
-    <mergeCell ref="A183:A192"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A119:A129"/>
-    <mergeCell ref="A112:A116"/>
+  <mergeCells count="36">
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="A2:A34"/>
+    <mergeCell ref="B2:B34"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="A67:A94"/>
+    <mergeCell ref="B198:B205"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A36:A45"/>
+    <mergeCell ref="A168:A177"/>
+    <mergeCell ref="A215:A221"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="C67:C86"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C2:C34"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B67:B86"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B121:B126"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="A121:A132"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="A139:A156"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D97" r:id="rId1" xr:uid="{F541BB00-780D-4B0C-8568-525F30DAED2E}"/>
-    <hyperlink ref="D109" r:id="rId2" xr:uid="{D9BA0B3C-DC7D-44AF-B40E-13C8C59E134B}"/>
-    <hyperlink ref="D126" r:id="rId3" xr:uid="{8B306E01-B38C-45EC-B6CE-FCB03DA3DB1A}"/>
-    <hyperlink ref="E218" r:id="rId4" xr:uid="{6973A5B5-4AC3-4571-80EC-F7A27028D2ED}"/>
+    <hyperlink ref="D99" r:id="rId1" xr:uid="{F541BB00-780D-4B0C-8568-525F30DAED2E}"/>
+    <hyperlink ref="D111" r:id="rId2" xr:uid="{D9BA0B3C-DC7D-44AF-B40E-13C8C59E134B}"/>
+    <hyperlink ref="D128" r:id="rId3" xr:uid="{8B306E01-B38C-45EC-B6CE-FCB03DA3DB1A}"/>
+    <hyperlink ref="E233" r:id="rId4" xr:uid="{6973A5B5-4AC3-4571-80EC-F7A27028D2ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>

--- a/Evaluation.xlsx
+++ b/Evaluation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bb0d295c9c231f/Desktop/GPU Programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="8_{DA7049D4-8BAC-4AD7-B9E6-B927A24908F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{247DAA81-642C-4937-93AF-6A96D6DA3A21}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="8_{DA7049D4-8BAC-4AD7-B9E6-B927A24908F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D25B6292-959B-40EE-96A3-0B2102CEF167}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0967B664-0B5A-42EB-A407-32DF2E322B5B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="518">
   <si>
     <t>Root Cause</t>
   </si>
@@ -1427,9 +1427,6 @@
     <t>"https://github.com/NVIDIA/TensorRT/issues/674"</t>
   </si>
   <si>
-    <t>Multi-GPU implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">MultI GPU communication output starnge results </t>
   </si>
   <si>
@@ -1574,6 +1571,216 @@
   </si>
   <si>
     <t>"https://github.com/JuliaGPU/CUDA.jl/issues/105"</t>
+  </si>
+  <si>
+    <t>"https://github.com/zylo117/Yet-Another-EfficientDet-Pytorch/issues/146"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ucbdrive/few-shot-object-detection/issues/11"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/37149"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/35020"</t>
+  </si>
+  <si>
+    <t>"https://github.com/mitsuba-renderer/enoki/issues/74"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenCL isNanF not implemented </t>
+  </si>
+  <si>
+    <t>"https://github.com/m4rs-mt/ILGPU/issues/74"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update versions of OpenCL backend </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floating Point exception </t>
+  </si>
+  <si>
+    <t>need newer GPUs with compatibility later than 6.0. K80 is too old</t>
+  </si>
+  <si>
+    <t>"https://github.com/limbo018/DREAMPlace/issues/21"</t>
+  </si>
+  <si>
+    <t>Concatenating arrays from different devices results in a CUDARuntimeError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CuPy array concatenation in multi-gpu </t>
+  </si>
+  <si>
+    <t>array should be explicitly moved to the device before doing the concatenation</t>
+  </si>
+  <si>
+    <t>"https://github.com/cupy/cupy/issues/3283"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/nccl/issues/332"</t>
+  </si>
+  <si>
+    <t>two AllReduce operations run concurrently using different communicators and different streams</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/nccl/issues/315"</t>
+  </si>
+  <si>
+    <r>
+      <t>start and end time right before and after </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cudaStreamSynchronize</t>
+    </r>
+  </si>
+  <si>
+    <t>"https://github.com/trilinos/Trilinos/issues/917"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-GPU </t>
+  </si>
+  <si>
+    <t>"https://github.com/ray-project/ray/issues/7536"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi GPU slower than 1 GPU </t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/35138"</t>
+  </si>
+  <si>
+    <t>Kernel awareness of hardware thread index</t>
+  </si>
+  <si>
+    <t>calculate the grid stride of your kernel </t>
+  </si>
+  <si>
+    <t>"https://github.com/m4rs-mt/ILGPU/issues/75"</t>
+  </si>
+  <si>
+    <t>"https://github.com/apache/incubator-mxnet/issues/17761"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement GPU prefetching of data </t>
+  </si>
+  <si>
+    <t>"https://github.com/PyTorchLightning/pytorch-lightning/issues/1316"</t>
+  </si>
+  <si>
+    <t>Implement Asynchronous GPU transfer and Training with Multithreading </t>
+  </si>
+  <si>
+    <t>"https://github.com/PointCloudLibrary/pcl/issues/3729"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cudaMalloc limits concurrency </t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/tensorrt-inference-server/issues/1106"</t>
+  </si>
+  <si>
+    <t>need to preallocate GPU memory for all uses like what we do for pinned system memory.</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CuArrays.jl/issues/661"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CuArrays.jl/issues/647"</t>
+  </si>
+  <si>
+    <t>"https://github.com/votca/xtp/issues/391"</t>
+  </si>
+  <si>
+    <t>"https://github.com/webmachinelearning/webnn/issues/26"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/36959"</t>
+  </si>
+  <si>
+    <t>"https://github.com/taichi-dev/taichi/issues/426"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/33909"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrong NCCL configuration </t>
+  </si>
+  <si>
+    <t>"https://github.com/facebookresearch/detectron2/issues/840"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change confugurations </t>
+  </si>
+  <si>
+    <t>stream is not synchronized and it could generate invalid results</t>
+  </si>
+  <si>
+    <t>"https://github.com/NLESC-JCER/EigenCuda/issues/22"</t>
+  </si>
+  <si>
+    <t>https://github.com/NLESC-JCER/EigenCuda/commit/6ae3454565b131e29d486928f0aea204435c3c18</t>
+  </si>
+  <si>
+    <t>"https://github.com/LaurentMazare/tch-rs/issues/153"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuRand Seed issues </t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CuArrays.jl/issues/589"</t>
+  </si>
+  <si>
+    <r>
+      <t>CuArrays.seed!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t> (with an optional seed value) now seeds both the CuArrays and GPUArrays</t>
+    </r>
+  </si>
+  <si>
+    <t>"https://github.com/zer011b/fdtd3d/issues/139"</t>
+  </si>
+  <si>
+    <t>GPU performance of scatter functions</t>
+  </si>
+  <si>
+    <t>GPU resulted in significantly slower execution rather than the expected speedup</t>
+  </si>
+  <si>
+    <t>modified some parameters</t>
+  </si>
+  <si>
+    <t>"https://github.com/yuehhua/GeometricFlux.jl/issues/16"</t>
+  </si>
+  <si>
+    <t>"https://github.com/numba/numba/issues/5130"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix Code </t>
+  </si>
+  <si>
+    <t>cuda.to_device() cannot copy zero-element data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API function error </t>
+  </si>
+  <si>
+    <t>"https://github.com/numba/numba/issues/5017"</t>
+  </si>
+  <si>
+    <t>https://github.com/numba/numba/commit/9e7688128a00977368dda72275e78d0bded4b7ad</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2343,7 @@
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2155,7 +2362,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2231,7 +2437,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2277,6 +2482,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2284,13 +2500,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -2647,10 +2861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE7409F-EF6D-4DCD-8C84-B653603F1772}">
-  <dimension ref="A1:E255"/>
+  <dimension ref="A1:E247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="D230" sqref="D230"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="B253" sqref="B253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2680,539 +2894,555 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="76" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="74" t="s">
-        <v>419</v>
+      <c r="C2" s="77" t="s">
+        <v>418</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="74"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="14" t="s">
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="72"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="15" t="s">
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="43" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="18" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="18" customFormat="1">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="18" t="s">
+    <row r="12" spans="1:5" s="17" customFormat="1">
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="18" customFormat="1">
-      <c r="A13" s="72"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="18" t="s">
+    <row r="13" spans="1:5" s="17" customFormat="1">
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="18" customFormat="1">
-      <c r="A14" s="72"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="18" t="s">
+    <row r="14" spans="1:5" s="17" customFormat="1">
+      <c r="A14" s="75"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="18" customFormat="1">
-      <c r="A15" s="72"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="18" t="s">
+    <row r="15" spans="1:5" s="17" customFormat="1">
+      <c r="A15" s="75"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="18" customFormat="1">
-      <c r="A16" s="72"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="18" t="s">
+    <row r="16" spans="1:5" s="17" customFormat="1">
+      <c r="A16" s="75"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="18" customFormat="1">
-      <c r="A17" s="72"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="18" t="s">
+    <row r="17" spans="1:5" s="17" customFormat="1">
+      <c r="A17" s="75"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="18" t="s">
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="18" customFormat="1">
-      <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="18" t="s">
+    <row r="19" spans="1:5" s="17" customFormat="1">
+      <c r="A19" s="75"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="18" customFormat="1">
-      <c r="A20" s="72"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="18" t="s">
+    <row r="20" spans="1:5" s="17" customFormat="1">
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="18" customFormat="1">
-      <c r="A21" s="72"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="18" t="s">
+    <row r="21" spans="1:5" s="17" customFormat="1">
+      <c r="A21" s="75"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="18" customFormat="1">
-      <c r="A22" s="72"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="18" t="s">
+    <row r="22" spans="1:5" s="17" customFormat="1">
+      <c r="A22" s="75"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="18" customFormat="1">
-      <c r="A23" s="72"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="18" t="s">
+    <row r="23" spans="1:5" s="17" customFormat="1">
+      <c r="A23" s="75"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="18" customFormat="1">
-      <c r="A24" s="72"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="18" t="s">
+    <row r="24" spans="1:5" s="17" customFormat="1">
+      <c r="A24" s="75"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="18" customFormat="1">
-      <c r="A25" s="72"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="18" t="s">
+    <row r="25" spans="1:5" s="17" customFormat="1">
+      <c r="A25" s="75"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="18" customFormat="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="18" t="s">
+    <row r="26" spans="1:5" s="17" customFormat="1">
+      <c r="A26" s="75"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="18" customFormat="1">
-      <c r="A27" s="72"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="23" t="s">
+    <row r="27" spans="1:5" s="17" customFormat="1">
+      <c r="A27" s="75"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="22" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="18" customFormat="1">
-      <c r="A28" s="72"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="18" t="s">
+    <row r="28" spans="1:5" s="17" customFormat="1">
+      <c r="A28" s="75"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="17" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30">
-      <c r="A29" s="72"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="27" t="s">
+      <c r="A29" s="75"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="26" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="18" customFormat="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="18" t="s">
+    <row r="30" spans="1:5" s="17" customFormat="1">
+      <c r="A30" s="75"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="17" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="18" customFormat="1" ht="45">
-      <c r="A31" s="72"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="35" t="s">
+    <row r="31" spans="1:5" s="17" customFormat="1" ht="45">
+      <c r="A31" s="75"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="34" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="61" customFormat="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="61" t="s">
+    <row r="32" spans="1:5" s="59" customFormat="1">
+      <c r="A32" s="75"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="E32" s="46"/>
-    </row>
-    <row r="33" spans="1:5" s="61" customFormat="1">
-      <c r="A33" s="72"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="75" t="s">
-        <v>420</v>
-      </c>
-      <c r="E33" s="70"/>
-    </row>
-    <row r="34" spans="1:5" s="18" customFormat="1">
-      <c r="A34" s="72"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="18" t="s">
+      <c r="E32" s="44"/>
+    </row>
+    <row r="33" spans="1:5" s="59" customFormat="1">
+      <c r="A33" s="75"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="70" t="s">
+        <v>419</v>
+      </c>
+      <c r="E33" s="68"/>
+    </row>
+    <row r="34" spans="1:5" s="59" customFormat="1">
+      <c r="A34" s="75"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="59" t="s">
+        <v>455</v>
+      </c>
+      <c r="E34" s="74"/>
+    </row>
+    <row r="35" spans="1:5" s="17" customFormat="1">
+      <c r="A35" s="75"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="17" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33">
-      <c r="A36" s="72" t="s">
+    <row r="37" spans="1:5" ht="33">
+      <c r="A37" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="18" customFormat="1" ht="45">
-      <c r="A37" s="72"/>
-      <c r="B37" s="73" t="s">
+    <row r="38" spans="1:5" s="17" customFormat="1" ht="45">
+      <c r="A38" s="75"/>
+      <c r="B38" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C38" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="18" customFormat="1">
-      <c r="A38" s="72"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="23" t="s">
+    <row r="39" spans="1:5" s="17" customFormat="1">
+      <c r="A39" s="75"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="22" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="18" customFormat="1">
-      <c r="A39" s="72"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="18" t="s">
+    <row r="40" spans="1:5" s="59" customFormat="1">
+      <c r="A40" s="75"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="59" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="17" customFormat="1">
+      <c r="A41" s="75"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="17" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="18" customFormat="1">
-      <c r="A40" s="72"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="18" t="s">
+    <row r="42" spans="1:5" s="17" customFormat="1">
+      <c r="A42" s="75"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="17" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A41" s="72"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="7" t="s">
+    <row r="43" spans="1:5" s="17" customFormat="1" ht="16.5">
+      <c r="A43" s="75"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D43" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="18" customFormat="1">
-      <c r="A42" s="72"/>
-      <c r="B42" s="26" t="s">
+    <row r="44" spans="1:5" s="17" customFormat="1">
+      <c r="A44" s="75"/>
+      <c r="B44" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C44" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D44" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="50" customFormat="1" ht="45">
-      <c r="A43" s="72"/>
-      <c r="B43" s="45" t="s">
+    <row r="45" spans="1:5" s="48" customFormat="1" ht="45">
+      <c r="A45" s="75"/>
+      <c r="B45" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C45" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="D45" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="E43" s="45" t="s">
+      <c r="E45" s="43" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="61" customFormat="1" ht="45">
-      <c r="A44" s="72"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="61" t="s">
+    <row r="46" spans="1:5" s="59" customFormat="1" ht="45">
+      <c r="A46" s="75"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="E44" s="63" t="s">
+      <c r="E46" s="61" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="18" customFormat="1">
-      <c r="A45" s="72"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="23" t="s">
+    <row r="47" spans="1:5" s="17" customFormat="1">
+      <c r="A47" s="75"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="22" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="18" customFormat="1" ht="45">
-      <c r="A46" s="26" t="s">
+    <row r="48" spans="1:5" s="17" customFormat="1" ht="45">
+      <c r="A48" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B48" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C48" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D48" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E48" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A47" s="25" t="s">
+    <row r="49" spans="1:4" s="17" customFormat="1" ht="16.5">
+      <c r="A49" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B49" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="68" t="s">
+      <c r="C49" s="7"/>
+      <c r="D49" s="66" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A48" s="72" t="s">
+    <row r="50" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A50" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="18" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A49" s="72"/>
-      <c r="B49" s="33" t="s">
+    <row r="51" spans="1:4" s="17" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A51" s="75"/>
+      <c r="B51" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="18" t="s">
+      <c r="C51" s="25"/>
+      <c r="D51" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="18" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A50" s="72"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="18" t="s">
+    <row r="52" spans="1:4" s="17" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A52" s="75"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="72"/>
-      <c r="C51" s="19" t="s">
+    <row r="53" spans="1:4" s="17" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A53" s="75"/>
+      <c r="C53" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D53" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="18" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A52" s="72" t="s">
+    <row r="54" spans="1:4" s="17" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A54" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C54" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D54" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="18" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A53" s="72"/>
-      <c r="C53" s="24" t="s">
+    <row r="55" spans="1:4" s="17" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A55" s="75"/>
+      <c r="C55" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D55" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="18" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A54" s="72"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="26" t="s">
+    <row r="56" spans="1:4" s="17" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A56" s="75"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="25" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A55" s="72"/>
-      <c r="B55" s="29" t="s">
+    <row r="57" spans="1:4" ht="38.25" customHeight="1">
+      <c r="A57" s="75"/>
+      <c r="B57" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D57" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="61" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A56" s="72"/>
-      <c r="B56" s="29"/>
-      <c r="D56" s="61" t="s">
+    <row r="58" spans="1:4" s="59" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A58" s="75"/>
+      <c r="B58" s="28"/>
+      <c r="D58" s="59" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="18" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A57" s="72"/>
-      <c r="B57" s="29"/>
-      <c r="D57" s="18" t="s">
+    <row r="59" spans="1:4" s="17" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A59" s="75"/>
+      <c r="B59" s="28"/>
+      <c r="D59" s="17" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30">
-      <c r="A58" t="s">
+    <row r="60" spans="1:4" ht="30">
+      <c r="A60" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="18" customFormat="1"/>
     <row r="61" spans="1:4" ht="30">
       <c r="A61" t="s">
         <v>14</v>
@@ -3227,12 +3457,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="18" customFormat="1">
-      <c r="B62" s="12"/>
-      <c r="D62" s="12"/>
+    <row r="62" spans="1:4" s="17" customFormat="1">
+      <c r="B62" s="11"/>
+      <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:4" ht="25.5" customHeight="1">
-      <c r="A63" s="72" t="s">
+      <c r="A63" s="75" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3241,215 +3471,215 @@
       <c r="C63" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="18" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A64" s="72"/>
-      <c r="B64" s="12" t="s">
+    <row r="64" spans="1:4" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A64" s="75"/>
+      <c r="B64" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="18" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A65" s="72"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="18" t="s">
+    <row r="65" spans="1:5" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A65" s="75"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="E65" s="39" t="s">
+      <c r="E65" s="38" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="18" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A66" s="28"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="20"/>
+    <row r="66" spans="1:5" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A66" s="27"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="19"/>
     </row>
     <row r="67" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A67" s="73" t="s">
+      <c r="A67" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="73" t="s">
+      <c r="B67" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="C67" s="73" t="s">
+      <c r="C67" s="76" t="s">
         <v>133</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="15" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A68" s="73"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="18" t="s">
+    <row r="68" spans="1:5" s="14" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A68" s="76"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E68"/>
     </row>
     <row r="69" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A69" s="73"/>
-      <c r="B69" s="73"/>
-      <c r="C69" s="73"/>
+      <c r="A69" s="76"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="76"/>
       <c r="D69" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="18" customFormat="1" ht="24" customHeight="1">
-      <c r="A70" s="73"/>
-      <c r="B70" s="73"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="18" t="s">
+    <row r="70" spans="1:5" s="17" customFormat="1" ht="24" customHeight="1">
+      <c r="A70" s="76"/>
+      <c r="B70" s="76"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A71" s="73"/>
-      <c r="B71" s="73"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="18" t="s">
+    <row r="71" spans="1:5" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="A71" s="76"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A72" s="73"/>
-      <c r="B72" s="73"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="18" t="s">
+    <row r="72" spans="1:5" s="16" customFormat="1" ht="18" customHeight="1">
+      <c r="A72" s="76"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="18" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A73" s="73"/>
-      <c r="B73" s="73"/>
-      <c r="C73" s="73"/>
-      <c r="D73" s="18" t="s">
+    <row r="73" spans="1:5" s="17" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A73" s="76"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A74" s="73"/>
-      <c r="B74" s="73"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="18" t="s">
+    <row r="74" spans="1:5" s="17" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A74" s="76"/>
+      <c r="B74" s="76"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="A75" s="73"/>
-      <c r="B75" s="73"/>
-      <c r="C75" s="73"/>
-      <c r="D75" s="18" t="s">
+    <row r="75" spans="1:5" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="A75" s="76"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="18" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A76" s="73"/>
-      <c r="B76" s="73"/>
-      <c r="C76" s="73"/>
-      <c r="D76" s="18" t="s">
+    <row r="76" spans="1:5" s="17" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A76" s="76"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="18" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A77" s="73"/>
-      <c r="B77" s="73"/>
-      <c r="C77" s="73"/>
-      <c r="D77" s="18" t="s">
+    <row r="77" spans="1:5" s="17" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A77" s="76"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="76"/>
+      <c r="D77" s="17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A78" s="73"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="73"/>
-      <c r="D78" s="18" t="s">
+    <row r="78" spans="1:5" s="17" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A78" s="76"/>
+      <c r="B78" s="76"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A79" s="73"/>
-      <c r="B79" s="73"/>
-      <c r="C79" s="73"/>
-      <c r="D79" s="18" t="s">
+    <row r="79" spans="1:5" s="17" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A79" s="76"/>
+      <c r="B79" s="76"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A80" s="73"/>
-      <c r="B80" s="73"/>
-      <c r="C80" s="73"/>
-      <c r="D80" s="18" t="s">
+    <row r="80" spans="1:5" s="17" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A80" s="76"/>
+      <c r="B80" s="76"/>
+      <c r="C80" s="76"/>
+      <c r="D80" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A81" s="73"/>
-      <c r="B81" s="73"/>
-      <c r="C81" s="73"/>
-      <c r="D81" s="18" t="s">
+    <row r="81" spans="1:5" s="17" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A81" s="76"/>
+      <c r="B81" s="76"/>
+      <c r="C81" s="76"/>
+      <c r="D81" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A82" s="73"/>
-      <c r="B82" s="73"/>
-      <c r="C82" s="73"/>
-      <c r="D82" s="18" t="s">
+    <row r="82" spans="1:5" s="17" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A82" s="76"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="17" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A83" s="73"/>
-      <c r="B83" s="73"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="18" t="s">
+    <row r="83" spans="1:5" s="17" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A83" s="76"/>
+      <c r="B83" s="76"/>
+      <c r="C83" s="76"/>
+      <c r="D83" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A84" s="73"/>
-      <c r="B84" s="73"/>
-      <c r="C84" s="73"/>
-      <c r="D84" s="23" t="s">
+    <row r="84" spans="1:5" s="17" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A84" s="76"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="E84" s="39" t="s">
+      <c r="E84" s="38" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="61" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A85" s="73"/>
-      <c r="B85" s="73"/>
-      <c r="C85" s="73"/>
-      <c r="D85" s="61" t="s">
+    <row r="85" spans="1:5" s="59" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A85" s="76"/>
+      <c r="B85" s="76"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="59" t="s">
         <v>376</v>
       </c>
-      <c r="E85" s="65"/>
-    </row>
-    <row r="86" spans="1:5" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A86" s="73"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="73"/>
-      <c r="D86" s="17" t="s">
+      <c r="E85" s="63"/>
+    </row>
+    <row r="86" spans="1:5" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A86" s="76"/>
+      <c r="B86" s="76"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="24" customHeight="1">
-      <c r="A87" s="73"/>
-      <c r="B87" s="73" t="s">
+      <c r="A87" s="76"/>
+      <c r="B87" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C87" s="73" t="s">
+      <c r="C87" s="76" t="s">
         <v>58</v>
       </c>
       <c r="D87" t="s">
@@ -3457,1501 +3687,1742 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="33" customHeight="1">
-      <c r="A88" s="73"/>
-      <c r="B88" s="73"/>
-      <c r="C88" s="73"/>
+      <c r="A88" s="76"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="76"/>
       <c r="D88" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="33" customHeight="1">
-      <c r="A89" s="73"/>
-      <c r="B89" s="73"/>
-      <c r="C89" s="73"/>
-      <c r="D89" s="13" t="s">
+      <c r="A89" s="76"/>
+      <c r="B89" s="76"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1">
-      <c r="A90" s="73"/>
-      <c r="B90" s="73"/>
-      <c r="C90" s="73"/>
-      <c r="D90" s="18" t="s">
+    <row r="90" spans="1:5" s="17" customFormat="1" ht="33" customHeight="1">
+      <c r="A90" s="76"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="17" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="33" customHeight="1">
-      <c r="A91" s="73"/>
-      <c r="B91" s="73" t="s">
+      <c r="A91" s="76"/>
+      <c r="B91" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="8" t="s">
         <v>53</v>
       </c>
       <c r="D91" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1">
-      <c r="A92" s="73"/>
-      <c r="B92" s="73"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="18" t="s">
+    <row r="92" spans="1:5" s="17" customFormat="1" ht="33" customHeight="1">
+      <c r="A92" s="76"/>
+      <c r="B92" s="76"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="17" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1">
-      <c r="A93" s="73"/>
-      <c r="B93" s="73"/>
-      <c r="C93" s="35"/>
-    </row>
-    <row r="94" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1">
-      <c r="A94" s="73"/>
-      <c r="B94" s="73"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="18" t="s">
+    <row r="93" spans="1:5" s="17" customFormat="1" ht="33" customHeight="1">
+      <c r="A93" s="76"/>
+      <c r="B93" s="76"/>
+      <c r="C93" s="34"/>
+    </row>
+    <row r="94" spans="1:5" s="17" customFormat="1" ht="33" customHeight="1">
+      <c r="A94" s="76"/>
+      <c r="B94" s="76"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="33" customHeight="1">
-      <c r="A95" s="8"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-    </row>
-    <row r="96" spans="1:5" ht="33" customHeight="1">
-      <c r="A96" s="8"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-    </row>
-    <row r="97" spans="1:5" ht="33" customHeight="1">
-      <c r="A97" s="8"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
+    <row r="95" spans="1:5">
+      <c r="A95" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="45">
+      <c r="A96" s="75"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="17" customFormat="1" ht="16.5">
+      <c r="A97" s="75"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="17" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="B98" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="45">
-      <c r="A99" s="72"/>
-      <c r="B99" s="72"/>
-      <c r="C99" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A100" s="72"/>
-      <c r="B100" s="36"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="18" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A101" s="28"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="6"/>
-    </row>
-    <row r="102" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A102" s="25"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="6"/>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="A98" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" t="s">
+        <v>145</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="17" customFormat="1" ht="43.5">
+      <c r="A99" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="17" customFormat="1">
+      <c r="A100" s="76"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="E100" s="34"/>
+    </row>
+    <row r="101" spans="1:5" s="17" customFormat="1">
+      <c r="A101" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C101" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E101" s="25"/>
+    </row>
+    <row r="102" spans="1:5" s="17" customFormat="1" ht="45">
+      <c r="A102" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="B102" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C102" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E102" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="30">
       <c r="A103" t="s">
-        <v>143</v>
-      </c>
-      <c r="B103" t="s">
-        <v>144</v>
-      </c>
-      <c r="C103" t="s">
-        <v>145</v>
-      </c>
-      <c r="D103" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" s="18" customFormat="1" ht="43.5">
-      <c r="A104" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="B104" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C104" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D104" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="18" customFormat="1">
-      <c r="A105" s="73"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="E105" s="35"/>
-    </row>
-    <row r="106" spans="1:5" s="18" customFormat="1">
-      <c r="A106" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="B106" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="C106" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="D106" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E106" s="26"/>
-    </row>
-    <row r="107" spans="1:5" s="18" customFormat="1">
-      <c r="A107" s="40"/>
-      <c r="B107" s="29"/>
-      <c r="C107" s="35"/>
-      <c r="E107" s="35"/>
-    </row>
-    <row r="108" spans="1:5" s="18" customFormat="1">
-      <c r="A108" s="40"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="35"/>
-      <c r="E108" s="35"/>
-    </row>
-    <row r="109" spans="1:5" s="18" customFormat="1" ht="45">
+        <v>25</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A104" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C104" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="17" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A105" s="75"/>
+      <c r="B105" s="75"/>
+      <c r="C105" s="75"/>
+      <c r="D105" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A106" s="75"/>
+      <c r="B106" s="75"/>
+      <c r="C106" s="75"/>
+      <c r="D106" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" s="17" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A107" s="75"/>
+      <c r="B107" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="17" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A108" s="75"/>
+      <c r="B108" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="17" customFormat="1" ht="29.25" customHeight="1">
       <c r="A109" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="B109" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="C109" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="D109" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="E109" s="35" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="30">
-      <c r="A111" t="s">
-        <v>25</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="22.5" customHeight="1">
-      <c r="A114" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="B114" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="C114" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" s="18" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A115" s="72"/>
-      <c r="B115" s="72"/>
-      <c r="C115" s="72"/>
-      <c r="D115" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A116" s="72"/>
-      <c r="B116" s="72"/>
-      <c r="C116" s="72"/>
-      <c r="D116" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" s="18" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A117" s="72"/>
-      <c r="B117" s="21" t="s">
-        <v>108</v>
+        <v>166</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="75" t="s">
+        <v>475</v>
+      </c>
+      <c r="B110" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C110" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="75"/>
+      <c r="B111" s="75"/>
+      <c r="C111" s="75"/>
+      <c r="D111" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="75"/>
+      <c r="B112" s="75"/>
+      <c r="D112" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="75"/>
+      <c r="B113" s="75"/>
+      <c r="C113" t="s">
+        <v>99</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="17" customFormat="1">
+      <c r="A114" s="75"/>
+      <c r="B114" s="75"/>
+      <c r="D114" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="75"/>
+      <c r="B115" s="75"/>
+      <c r="D115" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" s="59" customFormat="1">
+      <c r="A116" s="75"/>
+      <c r="B116" s="75"/>
+      <c r="D116" s="59" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="30">
+      <c r="A117" s="75"/>
+      <c r="B117" t="s">
+        <v>118</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D117" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" s="18" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A118" s="72"/>
-      <c r="B118" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="C118" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="D118" s="18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" s="18" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A119" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="B119" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C119" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="D119" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" s="17" customFormat="1">
+      <c r="A118" s="75"/>
+      <c r="B118" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C118" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="17" customFormat="1">
+      <c r="A119" s="75"/>
+      <c r="C119" s="76"/>
+      <c r="D119" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="53" customFormat="1">
+      <c r="A120" s="75"/>
+      <c r="C120" s="76"/>
+      <c r="D120" s="54" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="17" customFormat="1">
+      <c r="A121" s="75"/>
+      <c r="C121" s="76"/>
+      <c r="D121" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" s="59" customFormat="1">
+      <c r="A122" s="75"/>
+      <c r="B122" s="59" t="s">
+        <v>477</v>
+      </c>
+      <c r="C122" s="74"/>
+      <c r="D122" s="59" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="59" customFormat="1">
+      <c r="A123" s="75"/>
+      <c r="B123" s="59" t="s">
         <v>410</v>
       </c>
-      <c r="B121" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C121" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="72"/>
-      <c r="B122" s="72"/>
-      <c r="C122" s="72"/>
-      <c r="D122" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="72"/>
-      <c r="B123" s="72"/>
-      <c r="D123" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="72"/>
-      <c r="B124" s="72"/>
-      <c r="C124" t="s">
-        <v>99</v>
-      </c>
-      <c r="D124" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" s="18" customFormat="1">
-      <c r="A125" s="72"/>
-      <c r="B125" s="72"/>
-      <c r="D125" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="72"/>
-      <c r="B126" s="72"/>
-      <c r="D126" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="30">
-      <c r="A127" s="72"/>
-      <c r="B127" t="s">
-        <v>118</v>
-      </c>
-      <c r="C127" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D127" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" s="18" customFormat="1">
-      <c r="A128" s="72"/>
-      <c r="B128" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C128" s="73" t="s">
-        <v>138</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" s="18" customFormat="1">
-      <c r="A129" s="72"/>
-      <c r="C129" s="73"/>
-      <c r="D129" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" s="55" customFormat="1">
-      <c r="A130" s="72"/>
-      <c r="C130" s="73"/>
-      <c r="D130" s="56" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" s="18" customFormat="1">
-      <c r="A131" s="72"/>
-      <c r="C131" s="73"/>
-      <c r="D131" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" s="61" customFormat="1">
-      <c r="A132" s="72"/>
-      <c r="B132" s="61" t="s">
+      <c r="C123" s="65"/>
+      <c r="D123" s="69" t="s">
         <v>411</v>
       </c>
-      <c r="C132" s="67"/>
-      <c r="D132" s="71" t="s">
+    </row>
+    <row r="124" spans="1:4" s="52" customFormat="1" ht="30">
+      <c r="A124" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="B124" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="C124" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="D124" s="53" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="56" customFormat="1">
+      <c r="A125" s="43"/>
+      <c r="C125" s="43"/>
+    </row>
+    <row r="126" spans="1:4" s="17" customFormat="1">
+      <c r="A126" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126" s="25"/>
+      <c r="D126" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="56" customFormat="1" ht="16.5">
+      <c r="A127" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="B127" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="C127" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="D127" s="57" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="25.5">
+      <c r="A128" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="B128" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="C128" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" s="59" customFormat="1">
+      <c r="A129" s="41"/>
+    </row>
+    <row r="130" spans="1:5" ht="30">
+      <c r="A130" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" t="s">
+        <v>72</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="75"/>
+      <c r="D131" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="75"/>
+      <c r="D132" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="30">
+      <c r="A133" s="75"/>
+      <c r="B133" t="s">
+        <v>162</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E133" s="72" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" s="59" customFormat="1">
+      <c r="A134" s="75"/>
+      <c r="D134" s="59" t="s">
+        <v>496</v>
+      </c>
+      <c r="E134" s="72"/>
+    </row>
+    <row r="135" spans="1:5" s="59" customFormat="1">
+      <c r="A135" s="75"/>
+      <c r="D135" s="59" t="s">
+        <v>507</v>
+      </c>
+      <c r="E135" s="72"/>
+    </row>
+    <row r="136" spans="1:5" s="59" customFormat="1">
+      <c r="A136" s="75"/>
+      <c r="D136" s="70" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="60">
+      <c r="A137" s="75"/>
+      <c r="B137" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="C137" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D137" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E137" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" s="59" customFormat="1">
+      <c r="A138" s="75"/>
+      <c r="B138" s="75"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="69" t="s">
+        <v>409</v>
+      </c>
+      <c r="E138" s="65"/>
+    </row>
+    <row r="139" spans="1:5" s="17" customFormat="1">
+      <c r="A139" s="75"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E139" s="25"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="75"/>
+      <c r="D140" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" s="17" customFormat="1">
+      <c r="A141" s="75"/>
+      <c r="D141" s="17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" s="49" customFormat="1">
+      <c r="A142" s="75"/>
+      <c r="D142" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" s="59" customFormat="1">
+      <c r="A143" s="75"/>
+      <c r="C143" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="D143" s="66" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" s="54" customFormat="1" ht="45">
+      <c r="A144" s="75"/>
+      <c r="B144" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="C144" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="D144" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="E144" s="43" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="75"/>
+      <c r="B145" s="75" t="s">
+        <v>316</v>
+      </c>
+      <c r="D145" s="50" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" s="59" customFormat="1">
+      <c r="A146" s="75"/>
+      <c r="B146" s="75"/>
+      <c r="D146" s="69" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="133" spans="1:5" s="54" customFormat="1" ht="30">
-      <c r="A133" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="B133" s="54" t="s">
-        <v>322</v>
-      </c>
-      <c r="C133" s="45" t="s">
+    <row r="147" spans="1:5" s="59" customFormat="1">
+      <c r="A147" s="75"/>
+      <c r="B147" s="75"/>
+      <c r="D147" s="66" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" s="59" customFormat="1">
+      <c r="A148" s="75"/>
+      <c r="B148" s="75"/>
+      <c r="D148" s="59" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" s="59" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A149" s="75"/>
+      <c r="B149" s="75"/>
+      <c r="D149" s="66" t="s">
+        <v>397</v>
+      </c>
+      <c r="E149" s="64" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" s="59" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A150" s="75"/>
+      <c r="B150" s="67" t="s">
+        <v>437</v>
+      </c>
+      <c r="C150" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="D150" s="66" t="s">
+        <v>438</v>
+      </c>
+      <c r="E150" s="68" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" s="59" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A151" s="75"/>
+      <c r="B151" s="73" t="s">
+        <v>487</v>
+      </c>
+      <c r="C151" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="D151" s="59" t="s">
+        <v>488</v>
+      </c>
+      <c r="E151" s="74"/>
+    </row>
+    <row r="152" spans="1:5" s="17" customFormat="1">
+      <c r="A152" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="B152" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C152" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" s="59" customFormat="1">
+      <c r="A153" s="76"/>
+      <c r="B153" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="C153" s="31"/>
+      <c r="D153" s="70" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" s="59" customFormat="1">
+      <c r="A154" s="76"/>
+      <c r="B154" s="31"/>
+      <c r="C154" s="31"/>
+      <c r="D154" s="59" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" s="59" customFormat="1">
+      <c r="A155" s="76"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="D155" s="59" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" s="59" customFormat="1">
+      <c r="A156" s="76"/>
+      <c r="B156" s="31"/>
+      <c r="C156" s="31"/>
+      <c r="D156" s="59" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" s="59" customFormat="1" ht="60">
+      <c r="A157" s="76"/>
+      <c r="B157" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C157" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="D133" s="55" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" s="58" customFormat="1">
-      <c r="A134" s="45"/>
-      <c r="C134" s="45"/>
-    </row>
-    <row r="135" spans="1:5" s="18" customFormat="1">
-      <c r="A135" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C135" s="26"/>
-      <c r="D135" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" s="58" customFormat="1" ht="16.5">
-      <c r="A136" s="58" t="s">
-        <v>339</v>
-      </c>
-      <c r="B136" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="C136" s="37" t="s">
-        <v>338</v>
-      </c>
-      <c r="D136" s="59" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="25.5">
-      <c r="A137" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="B137" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="C137" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="D137" s="18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" s="18" customFormat="1"/>
-    <row r="139" spans="1:5" ht="30">
-      <c r="A139" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C139" t="s">
-        <v>72</v>
-      </c>
-      <c r="D139" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="72"/>
-      <c r="D140" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="72"/>
-      <c r="D141" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="30">
-      <c r="A142" s="72"/>
-      <c r="B142" t="s">
-        <v>162</v>
-      </c>
-      <c r="D142" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="E142" s="77" t="s">
+      <c r="D157" s="59" t="s">
+        <v>501</v>
+      </c>
+      <c r="E157" s="74" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" s="17" customFormat="1">
+      <c r="A158" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D158" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E158" s="25"/>
+    </row>
+    <row r="159" spans="1:5" s="17" customFormat="1" ht="60">
+      <c r="A159" s="76" t="s">
+        <v>238</v>
+      </c>
+      <c r="B159" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D159" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E159" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" s="59" customFormat="1">
+      <c r="A160" s="76"/>
+      <c r="B160" s="75"/>
+      <c r="D160" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="E160" s="74"/>
+    </row>
+    <row r="161" spans="1:4" ht="30">
+      <c r="A161" s="76"/>
+      <c r="B161" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C161" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="76"/>
+      <c r="D162" s="17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" s="17" customFormat="1" ht="45">
+      <c r="A163" s="75"/>
+      <c r="B163" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C163" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D163" s="26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" s="52" customFormat="1" ht="45">
+      <c r="A164" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="B164" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C164" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D164" s="52" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" s="52" customFormat="1" ht="30">
+      <c r="A165" s="75"/>
+      <c r="B165" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="C165" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D165" s="52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" s="51" customFormat="1">
+      <c r="A166" s="75"/>
+      <c r="B166" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="C166" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="D166" s="52" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" s="52" customFormat="1" ht="30">
+      <c r="A167" s="75"/>
+      <c r="B167" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C167" s="29"/>
+      <c r="D167" s="52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" s="52" customFormat="1" ht="16.5">
+      <c r="A168" s="75"/>
+      <c r="B168" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C168" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="D168" s="52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" s="59" customFormat="1" ht="16.5">
+      <c r="A169" s="75"/>
+      <c r="B169" s="31"/>
+      <c r="C169" s="36"/>
+      <c r="D169" s="59" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" s="55" customFormat="1" ht="16.5">
+      <c r="A170" s="75"/>
+      <c r="B170" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C170" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="D170" s="56" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" s="58" customFormat="1" ht="16.5">
+      <c r="A171" s="75"/>
+      <c r="B171" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="C171" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="D171" s="59" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" s="59" customFormat="1" ht="16.5">
+      <c r="A172" s="75"/>
+      <c r="B172" s="46"/>
+      <c r="C172" s="36"/>
+      <c r="D172" s="70" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" s="59" customFormat="1" ht="16.5">
+      <c r="A173" s="75"/>
+      <c r="B173" s="46"/>
+      <c r="C173" s="36"/>
+      <c r="D173" s="59" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" s="52" customFormat="1">
+      <c r="A174" s="75"/>
+      <c r="D174" s="52" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" s="59" customFormat="1" ht="29.25">
+      <c r="A175" s="60" t="s">
+        <v>358</v>
+      </c>
+      <c r="B175" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C175" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="D175" s="59" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" s="17" customFormat="1" ht="29.25">
+      <c r="A176" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B176" s="31"/>
+      <c r="C176" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="D176" s="63" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" s="17" customFormat="1">
+      <c r="A177" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B177" s="25"/>
+      <c r="C177" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D177" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="17" customFormat="1" ht="45">
+      <c r="A178" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178" s="25"/>
+      <c r="C178" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E178" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" s="17" customFormat="1" ht="120">
+      <c r="A179" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="B179" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="C179" s="29"/>
+      <c r="D179" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E179" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" s="59" customFormat="1">
+      <c r="A180" s="75"/>
+      <c r="B180" s="76"/>
+      <c r="C180" s="29"/>
+      <c r="D180" s="59" t="s">
+        <v>478</v>
+      </c>
+      <c r="E180" s="74"/>
+    </row>
+    <row r="181" spans="1:5" s="59" customFormat="1" ht="29.25">
+      <c r="A181" s="75"/>
+      <c r="B181" s="61" t="s">
+        <v>373</v>
+      </c>
+      <c r="C181" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="D181" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="E181" s="61"/>
+    </row>
+    <row r="182" spans="1:5" s="59" customFormat="1">
+      <c r="A182" s="75"/>
+      <c r="B182" s="74" t="s">
+        <v>460</v>
+      </c>
+      <c r="C182" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="D182" s="59" t="s">
+        <v>461</v>
+      </c>
+      <c r="E182" s="74"/>
+    </row>
+    <row r="183" spans="1:5" s="59" customFormat="1">
+      <c r="A183" s="75"/>
+      <c r="B183" s="68" t="s">
+        <v>415</v>
+      </c>
+      <c r="C183" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D183" s="70" t="s">
+        <v>417</v>
+      </c>
+      <c r="E183" s="68"/>
+    </row>
+    <row r="184" spans="1:5" s="59" customFormat="1" ht="30.75">
+      <c r="A184" s="75"/>
+      <c r="B184" s="68" t="s">
+        <v>434</v>
+      </c>
+      <c r="C184" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="D184" s="71" t="s">
+        <v>435</v>
+      </c>
+      <c r="E184" s="68"/>
+    </row>
+    <row r="185" spans="1:5" s="59" customFormat="1" ht="16.5">
+      <c r="A185" s="75"/>
+      <c r="B185" s="74"/>
+      <c r="C185" s="36"/>
+      <c r="D185" s="59" t="s">
+        <v>490</v>
+      </c>
+      <c r="E185" s="74"/>
+    </row>
+    <row r="186" spans="1:5" ht="43.5">
+      <c r="A186" t="s">
+        <v>377</v>
+      </c>
+      <c r="B186" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="C186" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="D186" s="59" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="30">
+      <c r="A187" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="B187" t="s">
+        <v>308</v>
+      </c>
+      <c r="D187" s="47" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="D189" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="75"/>
+      <c r="D190" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="75"/>
+      <c r="D191" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" s="17" customFormat="1">
+      <c r="A192" s="75"/>
+      <c r="D192" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="B193" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="D193" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" s="17" customFormat="1" ht="45">
+      <c r="A194" s="75"/>
+      <c r="B194" s="75"/>
+      <c r="D194" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E194" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" s="17" customFormat="1" ht="45">
+      <c r="A195" s="75"/>
+      <c r="B195" s="75"/>
+      <c r="C195" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D195" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E195" s="25"/>
+    </row>
+    <row r="196" spans="1:5" s="17" customFormat="1">
+      <c r="A196" s="75"/>
+      <c r="B196" s="75"/>
+      <c r="C196" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D196" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E196" s="25"/>
+    </row>
+    <row r="197" spans="1:5" s="17" customFormat="1">
+      <c r="A197" s="75"/>
+      <c r="B197" s="75"/>
+      <c r="C197" s="29"/>
+      <c r="D197" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E197" s="26"/>
+    </row>
+    <row r="198" spans="1:5" s="17" customFormat="1">
+      <c r="A198" s="75"/>
+      <c r="B198" s="75"/>
+      <c r="C198" s="29"/>
+      <c r="D198" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="E198" s="34"/>
+    </row>
+    <row r="199" spans="1:5" s="59" customFormat="1">
+      <c r="A199" s="75"/>
+      <c r="B199" s="75"/>
+      <c r="C199" s="29"/>
+      <c r="D199" s="59" t="s">
+        <v>458</v>
+      </c>
+      <c r="E199" s="74"/>
+    </row>
+    <row r="200" spans="1:5" s="59" customFormat="1">
+      <c r="A200" s="75"/>
+      <c r="B200" s="75"/>
+      <c r="C200" s="29"/>
+      <c r="D200" s="59" t="s">
+        <v>459</v>
+      </c>
+      <c r="E200" s="74"/>
+    </row>
+    <row r="201" spans="1:5" s="59" customFormat="1">
+      <c r="A201" s="75"/>
+      <c r="B201" s="75"/>
+      <c r="C201" s="29"/>
+      <c r="D201" s="59" t="s">
+        <v>345</v>
+      </c>
+      <c r="E201" s="44"/>
+    </row>
+    <row r="202" spans="1:5" s="59" customFormat="1">
+      <c r="A202" s="75"/>
+      <c r="B202" s="75"/>
+      <c r="C202" s="29"/>
+      <c r="D202" s="59" t="s">
+        <v>503</v>
+      </c>
+      <c r="E202" s="74"/>
+    </row>
+    <row r="203" spans="1:5" s="17" customFormat="1">
+      <c r="A203" s="75"/>
+      <c r="B203" s="75"/>
+      <c r="C203" s="29"/>
+      <c r="D203" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E203" s="25"/>
+    </row>
+    <row r="204" spans="1:5" s="17" customFormat="1">
+      <c r="A204" s="75"/>
+      <c r="B204" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C204" s="29"/>
+      <c r="D204" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="E204" s="38"/>
+    </row>
+    <row r="205" spans="1:5" s="59" customFormat="1" ht="29.25">
+      <c r="A205" s="75"/>
+      <c r="B205" s="59" t="s">
+        <v>504</v>
+      </c>
+      <c r="C205" s="42" t="s">
+        <v>506</v>
+      </c>
+      <c r="D205" s="59" t="s">
+        <v>505</v>
+      </c>
+      <c r="E205" s="74"/>
+    </row>
+    <row r="206" spans="1:5" ht="45">
+      <c r="A206" s="75"/>
+      <c r="B206" t="s">
+        <v>128</v>
+      </c>
+      <c r="C206" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D206" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="90">
+      <c r="A207" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B207" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D207" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" s="17" customFormat="1">
+      <c r="A208" s="75" t="s">
+        <v>233</v>
+      </c>
+      <c r="B208" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C208" s="30"/>
+      <c r="D208" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E208" s="25"/>
+    </row>
+    <row r="209" spans="1:5" s="59" customFormat="1">
+      <c r="A209" s="75"/>
+      <c r="C209" s="30"/>
+      <c r="D209" s="59" t="s">
+        <v>470</v>
+      </c>
+      <c r="E209" s="74"/>
+    </row>
+    <row r="210" spans="1:5" s="17" customFormat="1">
+      <c r="A210" s="75"/>
+      <c r="C210" s="30"/>
+      <c r="D210" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E210" s="26"/>
+    </row>
+    <row r="211" spans="1:5" s="59" customFormat="1">
+      <c r="A211" s="75"/>
+      <c r="C211" s="30"/>
+      <c r="D211" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="E211" s="44"/>
+    </row>
+    <row r="212" spans="1:5" s="17" customFormat="1" ht="16.5">
+      <c r="A212" s="75"/>
+      <c r="B212" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="C212" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="D212" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E212" s="26"/>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="75"/>
+      <c r="D213" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" s="17" customFormat="1" ht="16.5">
+      <c r="A214" s="75"/>
+      <c r="B214" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C214" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" s="59" customFormat="1" ht="33">
+      <c r="A215" s="75"/>
+      <c r="B215" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="C215" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="D215" s="59" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" s="17" customFormat="1" ht="16.5">
+      <c r="A216" s="75"/>
+      <c r="B216" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C216" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="D216" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="75"/>
+      <c r="D217" s="51" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" s="59" customFormat="1" ht="16.5">
+      <c r="A218" s="75"/>
+      <c r="B218" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="C218" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="D218" s="59" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>234</v>
+      </c>
+      <c r="C219" t="s">
+        <v>235</v>
+      </c>
+      <c r="D219" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="45">
+      <c r="B220" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="C220" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D220" s="17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>259</v>
+      </c>
+      <c r="D221" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="30">
+      <c r="A222" t="s">
+        <v>325</v>
+      </c>
+      <c r="B222" t="s">
+        <v>326</v>
+      </c>
+      <c r="C222" t="s">
+        <v>328</v>
+      </c>
+      <c r="D222" s="43" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="45">
+      <c r="A223" t="s">
+        <v>347</v>
+      </c>
+      <c r="B223" t="s">
+        <v>348</v>
+      </c>
+      <c r="C223" t="s">
+        <v>349</v>
+      </c>
+      <c r="D223" s="59" t="s">
+        <v>350</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" s="59" customFormat="1" ht="30">
+      <c r="B224" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="C224" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="D224" s="69" t="s">
+        <v>404</v>
+      </c>
+      <c r="E224" s="6"/>
+    </row>
+    <row r="225" spans="1:5" ht="45">
+      <c r="A225" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="B225" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="C225" s="62" t="s">
+        <v>354</v>
+      </c>
+      <c r="D225" s="59" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="45.75">
+      <c r="A226" s="61" t="s">
+        <v>362</v>
+      </c>
+      <c r="B226" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="C226" t="s">
+        <v>364</v>
+      </c>
+      <c r="D226" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="E226" s="61" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="45">
+      <c r="A227" s="75" t="s">
+        <v>369</v>
+      </c>
+      <c r="B227" t="s">
+        <v>370</v>
+      </c>
+      <c r="C227" s="61" t="s">
+        <v>371</v>
+      </c>
+      <c r="D227" s="59" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" s="59" customFormat="1">
+      <c r="A228" s="75"/>
+      <c r="C228" s="74"/>
+      <c r="D228" s="59" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="75"/>
+      <c r="B229" t="s">
+        <v>390</v>
+      </c>
+      <c r="C229" t="s">
+        <v>391</v>
+      </c>
+      <c r="D229" s="66" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" s="59" customFormat="1">
+      <c r="A230" s="75"/>
+      <c r="D230" s="59" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" s="59" customFormat="1">
+      <c r="A231" s="75"/>
+      <c r="B231" s="59" t="s">
+        <v>463</v>
+      </c>
+      <c r="C231" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="D231" s="59" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="60">
+      <c r="A232" t="s">
+        <v>382</v>
+      </c>
+      <c r="B232" t="s">
+        <v>383</v>
+      </c>
+      <c r="C232" t="s">
+        <v>384</v>
+      </c>
+      <c r="D232" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="E232" s="63" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="75">
+      <c r="A233" t="s">
+        <v>393</v>
+      </c>
+      <c r="B233" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="C233" t="s">
+        <v>394</v>
+      </c>
+      <c r="D233" s="66" t="s">
+        <v>395</v>
+      </c>
+      <c r="E233" s="64" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="30">
+      <c r="A234" t="s">
+        <v>405</v>
+      </c>
+      <c r="B234" s="65" t="s">
+        <v>406</v>
+      </c>
+      <c r="C234" t="s">
+        <v>407</v>
+      </c>
+      <c r="D234" s="69" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="60">
+      <c r="A235" t="s">
+        <v>422</v>
+      </c>
+      <c r="B235" s="68" t="s">
+        <v>420</v>
+      </c>
+      <c r="C235" s="68" t="s">
+        <v>431</v>
+      </c>
+      <c r="D235" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="E235" s="68" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>424</v>
+      </c>
+      <c r="B236" s="68" t="s">
+        <v>425</v>
+      </c>
+      <c r="C236" t="s">
+        <v>426</v>
+      </c>
+      <c r="D236" s="70" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="B237" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="C237" t="s">
+        <v>430</v>
+      </c>
+      <c r="D237" s="70" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="45">
+      <c r="A238" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" s="61" customFormat="1">
-      <c r="A143" s="72"/>
-      <c r="D143" s="75" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="60">
-      <c r="A144" s="72"/>
-      <c r="B144" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="C144" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="D144" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="E144" s="26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" s="61" customFormat="1">
-      <c r="A145" s="72"/>
-      <c r="B145" s="72"/>
-      <c r="C145" s="31"/>
-      <c r="D145" s="71" t="s">
-        <v>409</v>
-      </c>
-      <c r="E145" s="67"/>
-    </row>
-    <row r="146" spans="1:5" s="18" customFormat="1">
-      <c r="A146" s="72"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="E146" s="26"/>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="72"/>
-      <c r="D147" s="23" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" s="18" customFormat="1">
-      <c r="A148" s="72"/>
-      <c r="D148" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" s="51" customFormat="1">
-      <c r="A149" s="72"/>
-      <c r="D149" s="18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" s="61" customFormat="1">
-      <c r="A150" s="72"/>
-      <c r="C150" s="61" t="s">
-        <v>388</v>
-      </c>
-      <c r="D150" s="68" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" s="56" customFormat="1" ht="45">
-      <c r="A151" s="72"/>
-      <c r="B151" s="56" t="s">
-        <v>331</v>
-      </c>
-      <c r="C151" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="D151" s="57" t="s">
-        <v>330</v>
-      </c>
-      <c r="E151" s="45" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="72"/>
-      <c r="B152" s="72" t="s">
-        <v>316</v>
-      </c>
-      <c r="D152" s="52" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" s="61" customFormat="1">
-      <c r="A153" s="72"/>
-      <c r="B153" s="72"/>
-      <c r="D153" s="71" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" s="61" customFormat="1">
-      <c r="A154" s="72"/>
-      <c r="B154" s="72"/>
-      <c r="D154" s="68" t="s">
+      <c r="B238" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="C238" s="45" t="s">
+        <v>441</v>
+      </c>
+      <c r="D238" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="E238" s="68" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>447</v>
+      </c>
+      <c r="B239" s="68" t="s">
+        <v>448</v>
+      </c>
+      <c r="C239" t="s">
+        <v>449</v>
+      </c>
+      <c r="D239" s="66" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="30">
+      <c r="A240" s="68" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" s="61" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A155" s="72"/>
-      <c r="B155" s="72"/>
-      <c r="D155" s="68" t="s">
-        <v>397</v>
-      </c>
-      <c r="E155" s="66" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" s="61" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A156" s="72"/>
-      <c r="B156" s="69" t="s">
-        <v>438</v>
-      </c>
-      <c r="C156" s="37" t="s">
-        <v>446</v>
-      </c>
-      <c r="D156" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="E156" s="70" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" s="18" customFormat="1">
-      <c r="A157" s="73" t="s">
-        <v>270</v>
-      </c>
-      <c r="B157" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="C157" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="D157" s="18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" s="61" customFormat="1">
-      <c r="A158" s="73"/>
-      <c r="B158" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="C158" s="32"/>
-      <c r="D158" s="75" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" s="18" customFormat="1">
-      <c r="A159" s="36"/>
-      <c r="C159" s="31"/>
-      <c r="E159" s="26"/>
-    </row>
-    <row r="160" spans="1:5" s="18" customFormat="1">
-      <c r="A160" s="25"/>
-      <c r="C160" s="31"/>
-      <c r="D160" s="26"/>
-      <c r="E160" s="26"/>
-    </row>
-    <row r="161" spans="1:5" s="18" customFormat="1">
-      <c r="A161" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B161" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C161" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D161" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="E161" s="26"/>
-    </row>
-    <row r="162" spans="1:5" s="18" customFormat="1" ht="60">
-      <c r="A162" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="B162" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C162" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D162" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E162" s="26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="30">
-      <c r="A163" s="73"/>
-      <c r="B163" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C163" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="D163" s="18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="73"/>
-      <c r="D164" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" s="18" customFormat="1" ht="45">
-      <c r="A165" s="72"/>
-      <c r="B165" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="C165" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="D165" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A167" s="28"/>
-      <c r="B167" s="38"/>
-      <c r="C167" s="27"/>
-      <c r="D167" s="27"/>
-    </row>
-    <row r="168" spans="1:5" s="54" customFormat="1" ht="45">
-      <c r="A168" s="72" t="s">
-        <v>176</v>
-      </c>
-      <c r="B168" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="C168" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="D168" s="54" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" s="54" customFormat="1" ht="30">
-      <c r="A169" s="72"/>
-      <c r="B169" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="C169" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="D169" s="54" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" s="53" customFormat="1">
-      <c r="A170" s="72"/>
-      <c r="B170" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="C170" s="45" t="s">
-        <v>320</v>
-      </c>
-      <c r="D170" s="54" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" s="54" customFormat="1" ht="30">
-      <c r="A171" s="72"/>
-      <c r="B171" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="C171" s="30"/>
-      <c r="D171" s="54" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" s="54" customFormat="1" ht="16.5">
-      <c r="A172" s="72"/>
-      <c r="B172" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C172" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="D172" s="54" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" s="57" customFormat="1" ht="16.5">
-      <c r="A173" s="72"/>
-      <c r="B173" s="32"/>
-      <c r="C173" s="37"/>
-    </row>
-    <row r="174" spans="1:5" s="57" customFormat="1" ht="16.5">
-      <c r="A174" s="72"/>
-      <c r="B174" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="C174" s="37" t="s">
-        <v>335</v>
-      </c>
-      <c r="D174" s="58" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" s="60" customFormat="1" ht="16.5">
-      <c r="A175" s="72"/>
-      <c r="B175" s="48" t="s">
-        <v>343</v>
-      </c>
-      <c r="C175" s="37" t="s">
-        <v>342</v>
-      </c>
-      <c r="D175" s="61" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" s="61" customFormat="1" ht="16.5">
-      <c r="A176" s="72"/>
-      <c r="B176" s="48"/>
-      <c r="C176" s="37"/>
-      <c r="D176" s="75" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" s="54" customFormat="1">
-      <c r="A177" s="72"/>
-      <c r="D177" s="54" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" s="61" customFormat="1">
-      <c r="A178" s="62"/>
-    </row>
-    <row r="179" spans="1:5" s="61" customFormat="1" ht="29.25">
-      <c r="A179" s="62" t="s">
-        <v>358</v>
-      </c>
-      <c r="B179" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="C179" s="61" t="s">
-        <v>360</v>
-      </c>
-      <c r="D179" s="61" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" s="61" customFormat="1">
-      <c r="A180" s="44"/>
-    </row>
-    <row r="181" spans="1:5" s="18" customFormat="1" ht="29.25">
-      <c r="A181" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="B181" s="32"/>
-      <c r="C181" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="D181" s="65" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" s="18" customFormat="1">
-      <c r="A182" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B182" s="26"/>
-      <c r="C182" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="D182" s="18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" s="18" customFormat="1" ht="45">
-      <c r="A183" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="B183" s="26"/>
-      <c r="C183" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="D183" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E183" s="26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" s="18" customFormat="1">
-      <c r="B184" s="26"/>
-      <c r="C184" s="30"/>
-      <c r="E184" s="26"/>
-    </row>
-    <row r="185" spans="1:5" s="18" customFormat="1">
-      <c r="B185" s="26"/>
-      <c r="C185" s="30"/>
-      <c r="E185" s="26"/>
-    </row>
-    <row r="186" spans="1:5" s="18" customFormat="1" ht="120">
-      <c r="A186" s="72" t="s">
-        <v>209</v>
-      </c>
-      <c r="B186" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="C186" s="30"/>
-      <c r="D186" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="E186" s="26" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" s="61" customFormat="1" ht="29.25">
-      <c r="A187" s="72"/>
-      <c r="B187" s="63" t="s">
-        <v>373</v>
-      </c>
-      <c r="C187" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="D187" s="61" t="s">
-        <v>375</v>
-      </c>
-      <c r="E187" s="63"/>
-    </row>
-    <row r="188" spans="1:5" s="61" customFormat="1">
-      <c r="A188" s="72"/>
-      <c r="B188" s="70" t="s">
-        <v>416</v>
-      </c>
-      <c r="C188" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="D188" s="75" t="s">
-        <v>418</v>
-      </c>
-      <c r="E188" s="70"/>
-    </row>
-    <row r="189" spans="1:5" s="61" customFormat="1" ht="30.75">
-      <c r="A189" s="69"/>
-      <c r="B189" s="70" t="s">
-        <v>435</v>
-      </c>
-      <c r="C189" s="37" t="s">
-        <v>434</v>
-      </c>
-      <c r="D189" s="76" t="s">
-        <v>436</v>
-      </c>
-      <c r="E189" s="70"/>
-    </row>
-    <row r="190" spans="1:5" ht="43.5">
-      <c r="A190" t="s">
-        <v>377</v>
-      </c>
-      <c r="B190" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="C190" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="D190" s="61" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="30">
-      <c r="A191" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="B191" t="s">
-        <v>308</v>
-      </c>
-      <c r="D191" s="49" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="D194" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="72"/>
-      <c r="D195" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="72"/>
-      <c r="D196" s="23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" s="18" customFormat="1">
-      <c r="A197" s="72"/>
-      <c r="D197" s="23" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="B198" s="72" t="s">
-        <v>289</v>
-      </c>
-      <c r="D198" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" s="18" customFormat="1" ht="45">
-      <c r="A199" s="72"/>
-      <c r="B199" s="72"/>
-      <c r="D199" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E199" s="26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" s="18" customFormat="1" ht="45">
-      <c r="A200" s="72"/>
-      <c r="B200" s="72"/>
-      <c r="C200" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="D200" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="E200" s="26"/>
-    </row>
-    <row r="201" spans="1:5" s="18" customFormat="1">
-      <c r="A201" s="72"/>
-      <c r="B201" s="72"/>
-      <c r="C201" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="D201" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="E201" s="26"/>
-    </row>
-    <row r="202" spans="1:5" s="18" customFormat="1">
-      <c r="A202" s="72"/>
-      <c r="B202" s="72"/>
-      <c r="C202" s="30"/>
-      <c r="D202" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="E202" s="27"/>
-    </row>
-    <row r="203" spans="1:5" s="18" customFormat="1">
-      <c r="A203" s="72"/>
-      <c r="B203" s="72"/>
-      <c r="C203" s="30"/>
-      <c r="D203" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="E203" s="35"/>
-    </row>
-    <row r="204" spans="1:5" s="61" customFormat="1">
-      <c r="A204" s="72"/>
-      <c r="B204" s="72"/>
-      <c r="C204" s="30"/>
-      <c r="D204" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="E204" s="46"/>
-    </row>
-    <row r="205" spans="1:5" s="18" customFormat="1">
-      <c r="A205" s="72"/>
-      <c r="B205" s="72"/>
-      <c r="C205" s="30"/>
-      <c r="D205" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="E205" s="26"/>
-    </row>
-    <row r="206" spans="1:5" s="18" customFormat="1">
-      <c r="A206" s="72"/>
-      <c r="B206" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C206" s="30"/>
-      <c r="D206" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="E206" s="39"/>
-    </row>
-    <row r="207" spans="1:5" ht="45">
-      <c r="A207" s="72"/>
-      <c r="B207" t="s">
-        <v>128</v>
-      </c>
-      <c r="C207" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D207" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="90">
-      <c r="A212" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="B212" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D212" s="26" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" s="18" customFormat="1">
-      <c r="A215" s="72" t="s">
-        <v>233</v>
-      </c>
-      <c r="B215" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C215" s="31"/>
-      <c r="D215" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="E215" s="26"/>
-    </row>
-    <row r="216" spans="1:5" s="18" customFormat="1">
-      <c r="A216" s="72"/>
-      <c r="C216" s="31"/>
-      <c r="D216" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E216" s="27"/>
-    </row>
-    <row r="217" spans="1:5" s="61" customFormat="1">
-      <c r="A217" s="72"/>
-      <c r="C217" s="31"/>
-      <c r="D217" s="61" t="s">
-        <v>352</v>
-      </c>
-      <c r="E217" s="46"/>
-    </row>
-    <row r="218" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A218" s="72"/>
-      <c r="B218" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="C218" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="D218" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="E218" s="27"/>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="72"/>
-      <c r="D219" s="18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A220" s="72"/>
-      <c r="B220" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="C220" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="D220" s="18" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" s="18" customFormat="1" ht="16.5">
-      <c r="A221" s="72"/>
-      <c r="B221" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="C221" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="D221" s="18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="D222" s="53" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" s="53" customFormat="1"/>
-    <row r="224" spans="1:5">
-      <c r="A224" t="s">
-        <v>234</v>
-      </c>
-      <c r="C224" t="s">
-        <v>235</v>
-      </c>
-      <c r="D224" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="45">
-      <c r="B225" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="C225" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="D225" s="18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" t="s">
-        <v>259</v>
-      </c>
-      <c r="D228" s="23" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="30">
-      <c r="A230" t="s">
-        <v>325</v>
-      </c>
-      <c r="B230" t="s">
-        <v>326</v>
-      </c>
-      <c r="C230" t="s">
-        <v>328</v>
-      </c>
-      <c r="D230" s="45" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="45">
-      <c r="A233" t="s">
-        <v>347</v>
-      </c>
-      <c r="B233" t="s">
-        <v>348</v>
-      </c>
-      <c r="C233" t="s">
-        <v>349</v>
-      </c>
-      <c r="D233" s="61" t="s">
-        <v>350</v>
-      </c>
-      <c r="E233" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" s="61" customFormat="1" ht="30">
-      <c r="B234" s="29" t="s">
-        <v>402</v>
-      </c>
-      <c r="C234" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="D234" s="71" t="s">
-        <v>404</v>
-      </c>
-      <c r="E234" s="6"/>
-    </row>
-    <row r="236" spans="1:5" ht="45">
-      <c r="A236" s="61" t="s">
-        <v>355</v>
-      </c>
-      <c r="B236" s="47" t="s">
-        <v>353</v>
-      </c>
-      <c r="C236" s="64" t="s">
-        <v>354</v>
-      </c>
-      <c r="D236" s="61" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="45.75">
-      <c r="A239" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B239" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="C239" t="s">
-        <v>364</v>
-      </c>
-      <c r="D239" s="61" t="s">
-        <v>366</v>
-      </c>
-      <c r="E239" s="63" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="45">
-      <c r="A242" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="B242" t="s">
-        <v>370</v>
-      </c>
-      <c r="C242" s="63" t="s">
-        <v>371</v>
-      </c>
-      <c r="D242" s="61" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="72"/>
-      <c r="B243" t="s">
-        <v>390</v>
-      </c>
-      <c r="C243" t="s">
-        <v>391</v>
-      </c>
-      <c r="D243" s="68" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="60">
+      <c r="B240" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="D240" s="66" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="29.25">
+      <c r="A242" t="s">
+        <v>467</v>
+      </c>
+      <c r="B242" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="C242" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="D242" s="59" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="28.5">
+      <c r="A243" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="B243" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="D243" s="59" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="30">
       <c r="A244" t="s">
-        <v>382</v>
-      </c>
-      <c r="B244" t="s">
-        <v>383</v>
-      </c>
-      <c r="C244" t="s">
-        <v>384</v>
-      </c>
-      <c r="D244" s="61" t="s">
-        <v>385</v>
-      </c>
-      <c r="E244" s="65" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" ht="75">
-      <c r="A246" t="s">
-        <v>393</v>
-      </c>
-      <c r="B246" s="66" t="s">
-        <v>392</v>
-      </c>
-      <c r="C246" t="s">
-        <v>394</v>
-      </c>
-      <c r="D246" s="68" t="s">
-        <v>395</v>
-      </c>
-      <c r="E246" s="66" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" ht="30">
-      <c r="A248" t="s">
-        <v>405</v>
-      </c>
-      <c r="B248" s="67" t="s">
-        <v>406</v>
-      </c>
-      <c r="C248" t="s">
-        <v>407</v>
-      </c>
-      <c r="D248" s="71" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="60">
-      <c r="A249" t="s">
-        <v>423</v>
-      </c>
-      <c r="B249" s="70" t="s">
-        <v>421</v>
-      </c>
-      <c r="C249" s="70" t="s">
-        <v>432</v>
-      </c>
-      <c r="D249" s="75" t="s">
-        <v>422</v>
-      </c>
-      <c r="E249" s="70" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" t="s">
-        <v>425</v>
-      </c>
-      <c r="B250" s="70" t="s">
-        <v>426</v>
-      </c>
-      <c r="C250" t="s">
-        <v>427</v>
-      </c>
-      <c r="D250" s="75" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="B251" s="70" t="s">
-        <v>430</v>
-      </c>
-      <c r="C251" t="s">
-        <v>431</v>
-      </c>
-      <c r="D251" s="75" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="45">
-      <c r="A252" t="s">
-        <v>441</v>
-      </c>
-      <c r="B252" s="70" t="s">
-        <v>444</v>
-      </c>
-      <c r="C252" s="47" t="s">
-        <v>442</v>
-      </c>
-      <c r="D252" s="68" t="s">
-        <v>443</v>
-      </c>
-      <c r="E252" s="70" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253" t="s">
-        <v>448</v>
-      </c>
-      <c r="B253" s="70" t="s">
-        <v>449</v>
-      </c>
-      <c r="C253" t="s">
-        <v>450</v>
-      </c>
-      <c r="D253" s="68" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="30">
-      <c r="A255" s="70" t="s">
-        <v>453</v>
-      </c>
-      <c r="B255" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D255" s="68" t="s">
-        <v>455</v>
+        <v>483</v>
+      </c>
+      <c r="C244" s="79" t="s">
+        <v>485</v>
+      </c>
+      <c r="D244" s="74" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="80"/>
+    </row>
+    <row r="246" spans="1:5" ht="30.75">
+      <c r="A246" s="78" t="s">
+        <v>508</v>
+      </c>
+      <c r="B246" s="74" t="s">
+        <v>509</v>
+      </c>
+      <c r="C246" s="36" t="s">
+        <v>510</v>
+      </c>
+      <c r="D246" s="59" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="45">
+      <c r="A247" s="79" t="s">
+        <v>515</v>
+      </c>
+      <c r="B247" s="79" t="s">
+        <v>514</v>
+      </c>
+      <c r="D247" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="E247" s="74" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="A2:A34"/>
-    <mergeCell ref="B2:B34"/>
+  <mergeCells count="38">
+    <mergeCell ref="A227:A231"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="A130:A151"/>
+    <mergeCell ref="A179:A185"/>
+    <mergeCell ref="A208:A218"/>
+    <mergeCell ref="A152:A157"/>
+    <mergeCell ref="A2:A35"/>
+    <mergeCell ref="B2:B35"/>
     <mergeCell ref="B91:B94"/>
     <mergeCell ref="A67:A94"/>
-    <mergeCell ref="B198:B205"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A36:A45"/>
-    <mergeCell ref="A168:A177"/>
-    <mergeCell ref="A215:A221"/>
-    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="B193:B203"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="A164:A174"/>
+    <mergeCell ref="A54:A59"/>
     <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A110:A123"/>
     <mergeCell ref="C67:C86"/>
     <mergeCell ref="B87:B90"/>
     <mergeCell ref="C87:C90"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C2:C34"/>
-    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C2:C35"/>
+    <mergeCell ref="B38:B42"/>
     <mergeCell ref="B67:B86"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B121:B126"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="A121:A132"/>
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="A139:A156"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="B110:B116"/>
+    <mergeCell ref="B145:B149"/>
+    <mergeCell ref="A193:A206"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A189:A192"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D99" r:id="rId1" xr:uid="{F541BB00-780D-4B0C-8568-525F30DAED2E}"/>
-    <hyperlink ref="D111" r:id="rId2" xr:uid="{D9BA0B3C-DC7D-44AF-B40E-13C8C59E134B}"/>
-    <hyperlink ref="D128" r:id="rId3" xr:uid="{8B306E01-B38C-45EC-B6CE-FCB03DA3DB1A}"/>
-    <hyperlink ref="E233" r:id="rId4" xr:uid="{6973A5B5-4AC3-4571-80EC-F7A27028D2ED}"/>
+    <hyperlink ref="D96" r:id="rId1" xr:uid="{F541BB00-780D-4B0C-8568-525F30DAED2E}"/>
+    <hyperlink ref="D103" r:id="rId2" xr:uid="{D9BA0B3C-DC7D-44AF-B40E-13C8C59E134B}"/>
+    <hyperlink ref="D118" r:id="rId3" xr:uid="{8B306E01-B38C-45EC-B6CE-FCB03DA3DB1A}"/>
+    <hyperlink ref="E223" r:id="rId4" xr:uid="{6973A5B5-4AC3-4571-80EC-F7A27028D2ED}"/>
+    <hyperlink ref="C244" r:id="rId5" display="https://github.com/PyTorchLightning/pytorch-lightning/issues/1404" xr:uid="{1614D07D-B6DB-42CC-B79D-079697D94B34}"/>
+    <hyperlink ref="A246" r:id="rId6" display="https://github.com/FluxML/GeometricFlux.jl/issues/16" xr:uid="{09AB94C7-5AA1-40D5-93EC-12A501582932}"/>
+    <hyperlink ref="B247" r:id="rId7" display="https://github.com/numba/numba/issues/5017" xr:uid="{6BAD72DE-21BE-44D3-B633-BCBF2E4CCB53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>